--- a/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02406558394962843</v>
+        <v>0.0240655839498416</v>
       </c>
       <c r="D2">
-        <v>0.2000050467277816</v>
+        <v>0.200005046728009</v>
       </c>
       <c r="E2">
-        <v>0.1815077031368446</v>
+        <v>0.1815077031369015</v>
       </c>
       <c r="F2">
-        <v>7.72161783035429</v>
+        <v>7.721617830354262</v>
       </c>
       <c r="G2">
-        <v>6.477831450544755</v>
+        <v>6.477831450544727</v>
       </c>
       <c r="H2">
-        <v>5.946867989452784</v>
+        <v>5.946867989452755</v>
       </c>
       <c r="I2">
-        <v>0.2642252750362104</v>
+        <v>0.2642252750362459</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1775779207755264</v>
+        <v>0.1775779207755548</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02011078132894539</v>
+        <v>0.0201107813298762</v>
       </c>
       <c r="D3">
-        <v>0.1675427957221558</v>
+        <v>0.1675427957223832</v>
       </c>
       <c r="E3">
-        <v>0.153311119638218</v>
+        <v>0.1533111196382073</v>
       </c>
       <c r="F3">
-        <v>6.521524292124639</v>
+        <v>6.52152429212461</v>
       </c>
       <c r="G3">
         <v>5.46778466197398</v>
       </c>
       <c r="H3">
-        <v>5.021143684056824</v>
+        <v>5.021143684056796</v>
       </c>
       <c r="I3">
-        <v>0.2224833260887706</v>
+        <v>0.2224833260888062</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1496738228222618</v>
+        <v>0.1496738228222476</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01783734747968069</v>
+        <v>0.01783734747969135</v>
       </c>
       <c r="D4">
         <v>0.1488358154664127</v>
       </c>
       <c r="E4">
-        <v>0.1370635879177158</v>
+        <v>0.1370635879177016</v>
       </c>
       <c r="F4">
         <v>5.827832095380359</v>
@@ -506,10 +506,10 @@
         <v>4.884031423640323</v>
       </c>
       <c r="H4">
-        <v>4.486094608390715</v>
+        <v>4.486094608390687</v>
       </c>
       <c r="I4">
-        <v>0.1984272461225487</v>
+        <v>0.1984272461226055</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01694116714082128</v>
+        <v>0.01694116714104865</v>
       </c>
       <c r="D5">
-        <v>0.1414543067797496</v>
+        <v>0.1414543067796075</v>
       </c>
       <c r="E5">
-        <v>0.130655348301719</v>
+        <v>0.130655348301751</v>
       </c>
       <c r="F5">
-        <v>5.553766890568255</v>
+        <v>5.553766890568227</v>
       </c>
       <c r="G5">
         <v>4.653414297589734</v>
       </c>
       <c r="H5">
-        <v>4.274714604535802</v>
+        <v>4.274714604535745</v>
       </c>
       <c r="I5">
-        <v>0.1889374084832802</v>
+        <v>0.1889374084832625</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.127253679971389</v>
+        <v>0.1272536799714246</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,13 +567,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01679397047507436</v>
+        <v>0.01679397047561793</v>
       </c>
       <c r="D6">
-        <v>0.1402415666509569</v>
+        <v>0.1402415666509711</v>
       </c>
       <c r="E6">
-        <v>0.1296027408103555</v>
+        <v>0.1296027408103271</v>
       </c>
       <c r="F6">
         <v>5.508723378789085</v>
@@ -582,16 +582,16 @@
         <v>4.615512208942278</v>
       </c>
       <c r="H6">
-        <v>4.239974002261988</v>
+        <v>4.23997400226196</v>
       </c>
       <c r="I6">
-        <v>0.187378490215746</v>
+        <v>0.1873784902158029</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1262119480882866</v>
+        <v>0.1262119480882973</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01782514867892715</v>
+        <v>0.01782514867858964</v>
       </c>
       <c r="D7">
-        <v>0.1487353633032029</v>
+        <v>0.1487353633033734</v>
       </c>
       <c r="E7">
-        <v>0.1369763662895096</v>
+        <v>0.1369763662895132</v>
       </c>
       <c r="F7">
         <v>5.824103636451184</v>
       </c>
       <c r="G7">
-        <v>4.880894000155109</v>
+        <v>4.880894000155081</v>
       </c>
       <c r="H7">
-        <v>4.483218907612638</v>
+        <v>4.483218907612581</v>
       </c>
       <c r="I7">
-        <v>0.1982980897799109</v>
+        <v>0.1982980897799642</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1335091952194531</v>
+        <v>0.1335091952194354</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02266386221722172</v>
+        <v>0.02266386221780436</v>
       </c>
       <c r="D8">
-        <v>0.188512334607438</v>
+        <v>0.1885123346070827</v>
       </c>
       <c r="E8">
-        <v>0.171526723121346</v>
+        <v>0.1715267231213531</v>
       </c>
       <c r="F8">
-        <v>7.297337985398315</v>
+        <v>7.297337985398343</v>
       </c>
       <c r="G8">
-        <v>6.120715941660848</v>
+        <v>6.120715941660876</v>
       </c>
       <c r="H8">
         <v>5.619574819355734</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1676999572511626</v>
+        <v>0.1676999572511697</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03394515619232408</v>
+        <v>0.03394515619275751</v>
       </c>
       <c r="D9">
-        <v>0.2805024076425155</v>
+        <v>0.2805024076421603</v>
       </c>
       <c r="E9">
-        <v>0.2512487686189431</v>
+        <v>0.2512487686189573</v>
       </c>
       <c r="F9">
-        <v>10.67111797980786</v>
+        <v>10.67111797980775</v>
       </c>
       <c r="G9">
-        <v>8.961370887499186</v>
+        <v>8.9613708874991</v>
       </c>
       <c r="H9">
-        <v>8.222633958194365</v>
+        <v>8.222633958194223</v>
       </c>
       <c r="I9">
-        <v>0.3675200884857261</v>
+        <v>0.3675200884857546</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2466373260717845</v>
+        <v>0.2466373260717916</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04464377714679557</v>
+        <v>0.04464377714800349</v>
       </c>
       <c r="D10">
-        <v>0.3664396971549593</v>
+        <v>0.3664396971547887</v>
       </c>
       <c r="E10">
-        <v>0.3251098570982904</v>
+        <v>0.3251098570983828</v>
       </c>
       <c r="F10">
-        <v>13.76746229670823</v>
+        <v>13.76746229670817</v>
       </c>
       <c r="G10">
-        <v>11.57085382192773</v>
+        <v>11.57085382192764</v>
       </c>
       <c r="H10">
-        <v>10.61284886572474</v>
+        <v>10.61284886572466</v>
       </c>
       <c r="I10">
-        <v>0.4771306135253823</v>
+        <v>0.477130613525361</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05067300697240285</v>
+        <v>0.05067300697202626</v>
       </c>
       <c r="D11">
-        <v>0.4141977057560524</v>
+        <v>0.4141977057562656</v>
       </c>
       <c r="E11">
-        <v>0.365775371675916</v>
+        <v>0.3657753716758663</v>
       </c>
       <c r="F11">
-        <v>15.46038508768794</v>
+        <v>15.46038508768811</v>
       </c>
       <c r="G11">
-        <v>12.99883089447755</v>
+        <v>12.99883089447772</v>
       </c>
       <c r="H11">
-        <v>11.92029946797368</v>
+        <v>11.92029946797382</v>
       </c>
       <c r="I11">
-        <v>0.5376236105273478</v>
+        <v>0.5376236105273691</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3603143517569194</v>
+        <v>0.360314351756962</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0532425592687602</v>
+        <v>0.05324255926873178</v>
       </c>
       <c r="D12">
-        <v>0.4343892371599196</v>
+        <v>0.4343892371597065</v>
       </c>
       <c r="E12">
-        <v>0.3828703135058547</v>
+        <v>0.3828703135058404</v>
       </c>
       <c r="F12">
-        <v>16.16952632170626</v>
+        <v>16.16952632170637</v>
       </c>
       <c r="G12">
-        <v>13.59729076264128</v>
+        <v>13.59729076264142</v>
       </c>
       <c r="H12">
-        <v>12.46811525513459</v>
+        <v>12.46811525513476</v>
       </c>
       <c r="I12">
-        <v>0.5630916965407096</v>
+        <v>0.5630916965407238</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0.0526732097585807</v>
       </c>
       <c r="D13">
-        <v>0.4299239456802155</v>
+        <v>0.4299239456802297</v>
       </c>
       <c r="E13">
         <v>0.3790951654141068</v>
@@ -848,16 +848,16 @@
         <v>13.46522367436873</v>
       </c>
       <c r="H13">
-        <v>12.3472313303059</v>
+        <v>12.34723133030593</v>
       </c>
       <c r="I13">
-        <v>0.5574653763814226</v>
+        <v>0.5574653763814297</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3735661889892725</v>
+        <v>0.3735661889892015</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,31 +871,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05087756759061079</v>
+        <v>0.05087756759094475</v>
       </c>
       <c r="D14">
-        <v>0.4158087908601118</v>
+        <v>0.4158087908602823</v>
       </c>
       <c r="E14">
-        <v>0.3671416259318079</v>
+        <v>0.3671416259317439</v>
       </c>
       <c r="F14">
-        <v>15.51711608072981</v>
+        <v>15.51711608073003</v>
       </c>
       <c r="G14">
-        <v>13.04670060851197</v>
+        <v>13.04670060851205</v>
       </c>
       <c r="H14">
-        <v>11.9641212584913</v>
+        <v>11.96412125849142</v>
       </c>
       <c r="I14">
-        <v>0.5396581789587387</v>
+        <v>0.5396581789587884</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3616732890456973</v>
+        <v>0.3616732890457399</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0498204036123866</v>
+        <v>0.04982040361196027</v>
       </c>
       <c r="D15">
-        <v>0.4074760472374948</v>
+        <v>0.4074760472375374</v>
       </c>
       <c r="E15">
-        <v>0.3600710871252559</v>
+        <v>0.3600710871252488</v>
       </c>
       <c r="F15">
-        <v>15.22342250776188</v>
+        <v>15.2234225077616</v>
       </c>
       <c r="G15">
-        <v>12.79889396564957</v>
+        <v>12.79889396564931</v>
       </c>
       <c r="H15">
-        <v>11.73726395431783</v>
+        <v>11.73726395431757</v>
       </c>
       <c r="I15">
-        <v>0.5291306289912399</v>
+        <v>0.5291306289911475</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04428116764970724</v>
+        <v>0.04428116765014778</v>
       </c>
       <c r="D16">
-        <v>0.3635511325594507</v>
+        <v>0.3635511325596354</v>
       </c>
       <c r="E16">
-        <v>0.3226405937991288</v>
+        <v>0.3226405937991998</v>
       </c>
       <c r="F16">
-        <v>13.66439481872658</v>
+        <v>13.66439481872669</v>
       </c>
       <c r="G16">
-        <v>11.48394728012104</v>
+        <v>11.4839472801211</v>
       </c>
       <c r="H16">
-        <v>10.53326419767549</v>
+        <v>10.53326419767552</v>
       </c>
       <c r="I16">
-        <v>0.4734611437371399</v>
+        <v>0.4734611437371541</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3174483587534667</v>
+        <v>0.3174483587534596</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04123872867331357</v>
+        <v>0.04123872867405254</v>
       </c>
       <c r="D17">
-        <v>0.3392454444500999</v>
+        <v>0.3392454444504835</v>
       </c>
       <c r="E17">
-        <v>0.3018231219997034</v>
+        <v>0.3018231219996892</v>
       </c>
       <c r="F17">
-        <v>12.7942416386133</v>
+        <v>12.79424163861341</v>
       </c>
       <c r="G17">
-        <v>10.75036476422457</v>
+        <v>10.75036476422463</v>
       </c>
       <c r="H17">
-        <v>9.861429428224767</v>
+        <v>9.861429428224881</v>
       </c>
       <c r="I17">
-        <v>0.4425404672209439</v>
+        <v>0.4425404672209083</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2967845017274087</v>
+        <v>0.2967845017273802</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03958814383948805</v>
+        <v>0.03958814383908305</v>
       </c>
       <c r="D18">
-        <v>0.3260085892600415</v>
+        <v>0.3260085892600983</v>
       </c>
       <c r="E18">
-        <v>0.2904574513560902</v>
+        <v>0.2904574513561542</v>
       </c>
       <c r="F18">
-        <v>12.31823970581655</v>
+        <v>12.31823970581644</v>
       </c>
       <c r="G18">
-        <v>10.34916682311459</v>
+        <v>10.34916682311444</v>
       </c>
       <c r="H18">
-        <v>9.493960483739357</v>
+        <v>9.493960483739215</v>
       </c>
       <c r="I18">
-        <v>0.4256696091791312</v>
+        <v>0.4256696091791738</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2855085449173629</v>
+        <v>0.2855085449173913</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03904410222718724</v>
+        <v>0.03904410222720855</v>
       </c>
       <c r="D19">
-        <v>0.3216380950245821</v>
+        <v>0.3216380950248094</v>
       </c>
       <c r="E19">
-        <v>0.2867006201666484</v>
+        <v>0.2867006201666342</v>
       </c>
       <c r="F19">
-        <v>12.16075716944016</v>
+        <v>12.16075716944007</v>
       </c>
       <c r="G19">
-        <v>10.21644702550543</v>
+        <v>10.21644702550532</v>
       </c>
       <c r="H19">
-        <v>9.372392441826179</v>
+        <v>9.372392441826122</v>
       </c>
       <c r="I19">
-        <v>0.4200946505452947</v>
+        <v>0.4200946505453373</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2817822225812208</v>
+        <v>0.2817822225812847</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0415517498900968</v>
+        <v>0.04155174988975574</v>
       </c>
       <c r="D20">
-        <v>0.3417517686452669</v>
+        <v>0.3417517686451532</v>
       </c>
       <c r="E20">
-        <v>0.3039729528058999</v>
+        <v>0.303972952805907</v>
       </c>
       <c r="F20">
-        <v>12.88420442491707</v>
+        <v>12.8842044249169</v>
       </c>
       <c r="G20">
-        <v>10.82619726855899</v>
+        <v>10.82619726855876</v>
       </c>
       <c r="H20">
-        <v>9.930883459667967</v>
+        <v>9.93088345966774</v>
       </c>
       <c r="I20">
-        <v>0.4457324415021588</v>
+        <v>0.4457324415022157</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2989178132465256</v>
+        <v>0.2989178132465184</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05139569010978562</v>
+        <v>0.05139569010979983</v>
       </c>
       <c r="D21">
-        <v>0.4198866353021486</v>
+        <v>0.4198866353023902</v>
       </c>
       <c r="E21">
-        <v>0.3705980586920319</v>
+        <v>0.3705980586920461</v>
       </c>
       <c r="F21">
-        <v>15.66059474417034</v>
+        <v>15.66059474417023</v>
       </c>
       <c r="G21">
-        <v>13.16777338788822</v>
+        <v>13.16777338788808</v>
       </c>
       <c r="H21">
-        <v>12.07495367118818</v>
+        <v>12.07495367118804</v>
       </c>
       <c r="I21">
-        <v>0.5448060245083255</v>
+        <v>0.544806024508361</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3651115605910817</v>
+        <v>0.3651115605910533</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05967618605561142</v>
+        <v>0.05967618605561853</v>
       </c>
       <c r="D22">
-        <v>0.4844916653658657</v>
+        <v>0.484491665365482</v>
       </c>
       <c r="E22">
-        <v>0.4250069153102558</v>
+        <v>0.4250069153102984</v>
       </c>
       <c r="F22">
-        <v>17.91097029814568</v>
+        <v>17.91097029814563</v>
       </c>
       <c r="G22">
-        <v>15.06776772919596</v>
+        <v>15.06776772919585</v>
       </c>
       <c r="H22">
-        <v>13.81378451195656</v>
+        <v>13.81378451195647</v>
       </c>
       <c r="I22">
-        <v>0.6259777566761571</v>
+        <v>0.6259777566761855</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4193058698871184</v>
+        <v>0.4193058698871326</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05500759981958225</v>
+        <v>0.05500759981993752</v>
       </c>
       <c r="D23">
-        <v>0.4482002057285968</v>
+        <v>0.4482002057288241</v>
       </c>
       <c r="E23">
-        <v>0.3945268617457032</v>
+        <v>0.3945268617456748</v>
       </c>
       <c r="F23">
         <v>16.65220272261718</v>
       </c>
       <c r="G23">
-        <v>14.00474095033351</v>
+        <v>14.00474095033354</v>
       </c>
       <c r="H23">
-        <v>12.84103719856046</v>
+        <v>12.84103719856049</v>
       </c>
       <c r="I23">
-        <v>0.5804719205461453</v>
+        <v>0.5804719205461666</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3889289064419259</v>
+        <v>0.3889289064418975</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04140993311308705</v>
+        <v>0.04140993311275309</v>
       </c>
       <c r="D24">
-        <v>0.3406164159120237</v>
+        <v>0.34061641591137</v>
       </c>
       <c r="E24">
-        <v>0.3029991782446899</v>
+        <v>0.302999178244697</v>
       </c>
       <c r="F24">
-        <v>12.84345831630009</v>
+        <v>12.84345831630026</v>
       </c>
       <c r="G24">
-        <v>10.79185077634548</v>
+        <v>10.79185077634568</v>
       </c>
       <c r="H24">
-        <v>9.899426069213632</v>
+        <v>9.899426069213774</v>
       </c>
       <c r="I24">
-        <v>0.4442865902979136</v>
+        <v>0.4442865902978426</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.297951503045276</v>
+        <v>0.2979515030451907</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.030602203264678</v>
+        <v>0.03060220326548801</v>
       </c>
       <c r="D25">
-        <v>0.2533731219912454</v>
+        <v>0.2533731219912312</v>
       </c>
       <c r="E25">
-        <v>0.227788793396023</v>
+        <v>0.2277887933960798</v>
       </c>
       <c r="F25">
-        <v>9.681815914178173</v>
+        <v>9.681815914178117</v>
       </c>
       <c r="G25">
-        <v>8.12815226185424</v>
+        <v>8.128152261854183</v>
       </c>
       <c r="H25">
-        <v>7.459206084282783</v>
+        <v>7.459206084282698</v>
       </c>
       <c r="I25">
-        <v>0.3327581561749327</v>
+        <v>0.3327581561749682</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2233970560081175</v>
+        <v>0.2233970560080749</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0240655839498416</v>
+        <v>0.02406558394962843</v>
       </c>
       <c r="D2">
-        <v>0.200005046728009</v>
+        <v>0.2000050467277816</v>
       </c>
       <c r="E2">
-        <v>0.1815077031369015</v>
+        <v>0.1815077031368446</v>
       </c>
       <c r="F2">
-        <v>7.721617830354262</v>
+        <v>7.72161783035429</v>
       </c>
       <c r="G2">
-        <v>6.477831450544727</v>
+        <v>6.477831450544755</v>
       </c>
       <c r="H2">
-        <v>5.946867989452755</v>
+        <v>5.946867989452784</v>
       </c>
       <c r="I2">
-        <v>0.2642252750362459</v>
+        <v>0.2642252750362104</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1775779207755548</v>
+        <v>0.1775779207755264</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0201107813298762</v>
+        <v>0.02011078132894539</v>
       </c>
       <c r="D3">
-        <v>0.1675427957223832</v>
+        <v>0.1675427957221558</v>
       </c>
       <c r="E3">
-        <v>0.1533111196382073</v>
+        <v>0.153311119638218</v>
       </c>
       <c r="F3">
-        <v>6.52152429212461</v>
+        <v>6.521524292124639</v>
       </c>
       <c r="G3">
         <v>5.46778466197398</v>
       </c>
       <c r="H3">
-        <v>5.021143684056796</v>
+        <v>5.021143684056824</v>
       </c>
       <c r="I3">
-        <v>0.2224833260888062</v>
+        <v>0.2224833260887706</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1496738228222476</v>
+        <v>0.1496738228222618</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01783734747969135</v>
+        <v>0.01783734747968069</v>
       </c>
       <c r="D4">
         <v>0.1488358154664127</v>
       </c>
       <c r="E4">
-        <v>0.1370635879177016</v>
+        <v>0.1370635879177158</v>
       </c>
       <c r="F4">
         <v>5.827832095380359</v>
@@ -506,10 +506,10 @@
         <v>4.884031423640323</v>
       </c>
       <c r="H4">
-        <v>4.486094608390687</v>
+        <v>4.486094608390715</v>
       </c>
       <c r="I4">
-        <v>0.1984272461226055</v>
+        <v>0.1984272461225487</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01694116714104865</v>
+        <v>0.01694116714082128</v>
       </c>
       <c r="D5">
-        <v>0.1414543067796075</v>
+        <v>0.1414543067797496</v>
       </c>
       <c r="E5">
-        <v>0.130655348301751</v>
+        <v>0.130655348301719</v>
       </c>
       <c r="F5">
-        <v>5.553766890568227</v>
+        <v>5.553766890568255</v>
       </c>
       <c r="G5">
         <v>4.653414297589734</v>
       </c>
       <c r="H5">
-        <v>4.274714604535745</v>
+        <v>4.274714604535802</v>
       </c>
       <c r="I5">
-        <v>0.1889374084832625</v>
+        <v>0.1889374084832802</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1272536799714246</v>
+        <v>0.127253679971389</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,13 +567,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01679397047561793</v>
+        <v>0.01679397047507436</v>
       </c>
       <c r="D6">
-        <v>0.1402415666509711</v>
+        <v>0.1402415666509569</v>
       </c>
       <c r="E6">
-        <v>0.1296027408103271</v>
+        <v>0.1296027408103555</v>
       </c>
       <c r="F6">
         <v>5.508723378789085</v>
@@ -582,16 +582,16 @@
         <v>4.615512208942278</v>
       </c>
       <c r="H6">
-        <v>4.23997400226196</v>
+        <v>4.239974002261988</v>
       </c>
       <c r="I6">
-        <v>0.1873784902158029</v>
+        <v>0.187378490215746</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1262119480882973</v>
+        <v>0.1262119480882866</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01782514867858964</v>
+        <v>0.01782514867892715</v>
       </c>
       <c r="D7">
-        <v>0.1487353633033734</v>
+        <v>0.1487353633032029</v>
       </c>
       <c r="E7">
-        <v>0.1369763662895132</v>
+        <v>0.1369763662895096</v>
       </c>
       <c r="F7">
         <v>5.824103636451184</v>
       </c>
       <c r="G7">
-        <v>4.880894000155081</v>
+        <v>4.880894000155109</v>
       </c>
       <c r="H7">
-        <v>4.483218907612581</v>
+        <v>4.483218907612638</v>
       </c>
       <c r="I7">
-        <v>0.1982980897799642</v>
+        <v>0.1982980897799109</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1335091952194354</v>
+        <v>0.1335091952194531</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02266386221780436</v>
+        <v>0.02266386221722172</v>
       </c>
       <c r="D8">
-        <v>0.1885123346070827</v>
+        <v>0.188512334607438</v>
       </c>
       <c r="E8">
-        <v>0.1715267231213531</v>
+        <v>0.171526723121346</v>
       </c>
       <c r="F8">
-        <v>7.297337985398343</v>
+        <v>7.297337985398315</v>
       </c>
       <c r="G8">
-        <v>6.120715941660876</v>
+        <v>6.120715941660848</v>
       </c>
       <c r="H8">
         <v>5.619574819355734</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1676999572511697</v>
+        <v>0.1676999572511626</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03394515619275751</v>
+        <v>0.03394515619232408</v>
       </c>
       <c r="D9">
-        <v>0.2805024076421603</v>
+        <v>0.2805024076425155</v>
       </c>
       <c r="E9">
-        <v>0.2512487686189573</v>
+        <v>0.2512487686189431</v>
       </c>
       <c r="F9">
-        <v>10.67111797980775</v>
+        <v>10.67111797980786</v>
       </c>
       <c r="G9">
-        <v>8.9613708874991</v>
+        <v>8.961370887499186</v>
       </c>
       <c r="H9">
-        <v>8.222633958194223</v>
+        <v>8.222633958194365</v>
       </c>
       <c r="I9">
-        <v>0.3675200884857546</v>
+        <v>0.3675200884857261</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2466373260717916</v>
+        <v>0.2466373260717845</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04464377714800349</v>
+        <v>0.04464377714679557</v>
       </c>
       <c r="D10">
-        <v>0.3664396971547887</v>
+        <v>0.3664396971549593</v>
       </c>
       <c r="E10">
-        <v>0.3251098570983828</v>
+        <v>0.3251098570982904</v>
       </c>
       <c r="F10">
-        <v>13.76746229670817</v>
+        <v>13.76746229670823</v>
       </c>
       <c r="G10">
-        <v>11.57085382192764</v>
+        <v>11.57085382192773</v>
       </c>
       <c r="H10">
-        <v>10.61284886572466</v>
+        <v>10.61284886572474</v>
       </c>
       <c r="I10">
-        <v>0.477130613525361</v>
+        <v>0.4771306135253823</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05067300697202626</v>
+        <v>0.05067300697240285</v>
       </c>
       <c r="D11">
-        <v>0.4141977057562656</v>
+        <v>0.4141977057560524</v>
       </c>
       <c r="E11">
-        <v>0.3657753716758663</v>
+        <v>0.365775371675916</v>
       </c>
       <c r="F11">
-        <v>15.46038508768811</v>
+        <v>15.46038508768794</v>
       </c>
       <c r="G11">
-        <v>12.99883089447772</v>
+        <v>12.99883089447755</v>
       </c>
       <c r="H11">
-        <v>11.92029946797382</v>
+        <v>11.92029946797368</v>
       </c>
       <c r="I11">
-        <v>0.5376236105273691</v>
+        <v>0.5376236105273478</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.360314351756962</v>
+        <v>0.3603143517569194</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05324255926873178</v>
+        <v>0.0532425592687602</v>
       </c>
       <c r="D12">
-        <v>0.4343892371597065</v>
+        <v>0.4343892371599196</v>
       </c>
       <c r="E12">
-        <v>0.3828703135058404</v>
+        <v>0.3828703135058547</v>
       </c>
       <c r="F12">
-        <v>16.16952632170637</v>
+        <v>16.16952632170626</v>
       </c>
       <c r="G12">
-        <v>13.59729076264142</v>
+        <v>13.59729076264128</v>
       </c>
       <c r="H12">
-        <v>12.46811525513476</v>
+        <v>12.46811525513459</v>
       </c>
       <c r="I12">
-        <v>0.5630916965407238</v>
+        <v>0.5630916965407096</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0.0526732097585807</v>
       </c>
       <c r="D13">
-        <v>0.4299239456802297</v>
+        <v>0.4299239456802155</v>
       </c>
       <c r="E13">
         <v>0.3790951654141068</v>
@@ -848,16 +848,16 @@
         <v>13.46522367436873</v>
       </c>
       <c r="H13">
-        <v>12.34723133030593</v>
+        <v>12.3472313303059</v>
       </c>
       <c r="I13">
-        <v>0.5574653763814297</v>
+        <v>0.5574653763814226</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3735661889892015</v>
+        <v>0.3735661889892725</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,31 +871,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05087756759094475</v>
+        <v>0.05087756759061079</v>
       </c>
       <c r="D14">
-        <v>0.4158087908602823</v>
+        <v>0.4158087908601118</v>
       </c>
       <c r="E14">
-        <v>0.3671416259317439</v>
+        <v>0.3671416259318079</v>
       </c>
       <c r="F14">
-        <v>15.51711608073003</v>
+        <v>15.51711608072981</v>
       </c>
       <c r="G14">
-        <v>13.04670060851205</v>
+        <v>13.04670060851197</v>
       </c>
       <c r="H14">
-        <v>11.96412125849142</v>
+        <v>11.9641212584913</v>
       </c>
       <c r="I14">
-        <v>0.5396581789587884</v>
+        <v>0.5396581789587387</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3616732890457399</v>
+        <v>0.3616732890456973</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04982040361196027</v>
+        <v>0.0498204036123866</v>
       </c>
       <c r="D15">
-        <v>0.4074760472375374</v>
+        <v>0.4074760472374948</v>
       </c>
       <c r="E15">
-        <v>0.3600710871252488</v>
+        <v>0.3600710871252559</v>
       </c>
       <c r="F15">
-        <v>15.2234225077616</v>
+        <v>15.22342250776188</v>
       </c>
       <c r="G15">
-        <v>12.79889396564931</v>
+        <v>12.79889396564957</v>
       </c>
       <c r="H15">
-        <v>11.73726395431757</v>
+        <v>11.73726395431783</v>
       </c>
       <c r="I15">
-        <v>0.5291306289911475</v>
+        <v>0.5291306289912399</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04428116765014778</v>
+        <v>0.04428116764970724</v>
       </c>
       <c r="D16">
-        <v>0.3635511325596354</v>
+        <v>0.3635511325594507</v>
       </c>
       <c r="E16">
-        <v>0.3226405937991998</v>
+        <v>0.3226405937991288</v>
       </c>
       <c r="F16">
-        <v>13.66439481872669</v>
+        <v>13.66439481872658</v>
       </c>
       <c r="G16">
-        <v>11.4839472801211</v>
+        <v>11.48394728012104</v>
       </c>
       <c r="H16">
-        <v>10.53326419767552</v>
+        <v>10.53326419767549</v>
       </c>
       <c r="I16">
-        <v>0.4734611437371541</v>
+        <v>0.4734611437371399</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3174483587534596</v>
+        <v>0.3174483587534667</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04123872867405254</v>
+        <v>0.04123872867331357</v>
       </c>
       <c r="D17">
-        <v>0.3392454444504835</v>
+        <v>0.3392454444500999</v>
       </c>
       <c r="E17">
-        <v>0.3018231219996892</v>
+        <v>0.3018231219997034</v>
       </c>
       <c r="F17">
-        <v>12.79424163861341</v>
+        <v>12.7942416386133</v>
       </c>
       <c r="G17">
-        <v>10.75036476422463</v>
+        <v>10.75036476422457</v>
       </c>
       <c r="H17">
-        <v>9.861429428224881</v>
+        <v>9.861429428224767</v>
       </c>
       <c r="I17">
-        <v>0.4425404672209083</v>
+        <v>0.4425404672209439</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2967845017273802</v>
+        <v>0.2967845017274087</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03958814383908305</v>
+        <v>0.03958814383948805</v>
       </c>
       <c r="D18">
-        <v>0.3260085892600983</v>
+        <v>0.3260085892600415</v>
       </c>
       <c r="E18">
-        <v>0.2904574513561542</v>
+        <v>0.2904574513560902</v>
       </c>
       <c r="F18">
-        <v>12.31823970581644</v>
+        <v>12.31823970581655</v>
       </c>
       <c r="G18">
-        <v>10.34916682311444</v>
+        <v>10.34916682311459</v>
       </c>
       <c r="H18">
-        <v>9.493960483739215</v>
+        <v>9.493960483739357</v>
       </c>
       <c r="I18">
-        <v>0.4256696091791738</v>
+        <v>0.4256696091791312</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2855085449173913</v>
+        <v>0.2855085449173629</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03904410222720855</v>
+        <v>0.03904410222718724</v>
       </c>
       <c r="D19">
-        <v>0.3216380950248094</v>
+        <v>0.3216380950245821</v>
       </c>
       <c r="E19">
-        <v>0.2867006201666342</v>
+        <v>0.2867006201666484</v>
       </c>
       <c r="F19">
-        <v>12.16075716944007</v>
+        <v>12.16075716944016</v>
       </c>
       <c r="G19">
-        <v>10.21644702550532</v>
+        <v>10.21644702550543</v>
       </c>
       <c r="H19">
-        <v>9.372392441826122</v>
+        <v>9.372392441826179</v>
       </c>
       <c r="I19">
-        <v>0.4200946505453373</v>
+        <v>0.4200946505452947</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2817822225812847</v>
+        <v>0.2817822225812208</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04155174988975574</v>
+        <v>0.0415517498900968</v>
       </c>
       <c r="D20">
-        <v>0.3417517686451532</v>
+        <v>0.3417517686452669</v>
       </c>
       <c r="E20">
-        <v>0.303972952805907</v>
+        <v>0.3039729528058999</v>
       </c>
       <c r="F20">
-        <v>12.8842044249169</v>
+        <v>12.88420442491707</v>
       </c>
       <c r="G20">
-        <v>10.82619726855876</v>
+        <v>10.82619726855899</v>
       </c>
       <c r="H20">
-        <v>9.93088345966774</v>
+        <v>9.930883459667967</v>
       </c>
       <c r="I20">
-        <v>0.4457324415022157</v>
+        <v>0.4457324415021588</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2989178132465184</v>
+        <v>0.2989178132465256</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05139569010979983</v>
+        <v>0.05139569010978562</v>
       </c>
       <c r="D21">
-        <v>0.4198866353023902</v>
+        <v>0.4198866353021486</v>
       </c>
       <c r="E21">
-        <v>0.3705980586920461</v>
+        <v>0.3705980586920319</v>
       </c>
       <c r="F21">
-        <v>15.66059474417023</v>
+        <v>15.66059474417034</v>
       </c>
       <c r="G21">
-        <v>13.16777338788808</v>
+        <v>13.16777338788822</v>
       </c>
       <c r="H21">
-        <v>12.07495367118804</v>
+        <v>12.07495367118818</v>
       </c>
       <c r="I21">
-        <v>0.544806024508361</v>
+        <v>0.5448060245083255</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3651115605910533</v>
+        <v>0.3651115605910817</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05967618605561853</v>
+        <v>0.05967618605561142</v>
       </c>
       <c r="D22">
-        <v>0.484491665365482</v>
+        <v>0.4844916653658657</v>
       </c>
       <c r="E22">
-        <v>0.4250069153102984</v>
+        <v>0.4250069153102558</v>
       </c>
       <c r="F22">
-        <v>17.91097029814563</v>
+        <v>17.91097029814568</v>
       </c>
       <c r="G22">
-        <v>15.06776772919585</v>
+        <v>15.06776772919596</v>
       </c>
       <c r="H22">
-        <v>13.81378451195647</v>
+        <v>13.81378451195656</v>
       </c>
       <c r="I22">
-        <v>0.6259777566761855</v>
+        <v>0.6259777566761571</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4193058698871326</v>
+        <v>0.4193058698871184</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05500759981993752</v>
+        <v>0.05500759981958225</v>
       </c>
       <c r="D23">
-        <v>0.4482002057288241</v>
+        <v>0.4482002057285968</v>
       </c>
       <c r="E23">
-        <v>0.3945268617456748</v>
+        <v>0.3945268617457032</v>
       </c>
       <c r="F23">
         <v>16.65220272261718</v>
       </c>
       <c r="G23">
-        <v>14.00474095033354</v>
+        <v>14.00474095033351</v>
       </c>
       <c r="H23">
-        <v>12.84103719856049</v>
+        <v>12.84103719856046</v>
       </c>
       <c r="I23">
-        <v>0.5804719205461666</v>
+        <v>0.5804719205461453</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3889289064418975</v>
+        <v>0.3889289064419259</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04140993311275309</v>
+        <v>0.04140993311308705</v>
       </c>
       <c r="D24">
-        <v>0.34061641591137</v>
+        <v>0.3406164159120237</v>
       </c>
       <c r="E24">
-        <v>0.302999178244697</v>
+        <v>0.3029991782446899</v>
       </c>
       <c r="F24">
-        <v>12.84345831630026</v>
+        <v>12.84345831630009</v>
       </c>
       <c r="G24">
-        <v>10.79185077634568</v>
+        <v>10.79185077634548</v>
       </c>
       <c r="H24">
-        <v>9.899426069213774</v>
+        <v>9.899426069213632</v>
       </c>
       <c r="I24">
-        <v>0.4442865902978426</v>
+        <v>0.4442865902979136</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2979515030451907</v>
+        <v>0.297951503045276</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03060220326548801</v>
+        <v>0.030602203264678</v>
       </c>
       <c r="D25">
-        <v>0.2533731219912312</v>
+        <v>0.2533731219912454</v>
       </c>
       <c r="E25">
-        <v>0.2277887933960798</v>
+        <v>0.227788793396023</v>
       </c>
       <c r="F25">
-        <v>9.681815914178117</v>
+        <v>9.681815914178173</v>
       </c>
       <c r="G25">
-        <v>8.128152261854183</v>
+        <v>8.12815226185424</v>
       </c>
       <c r="H25">
-        <v>7.459206084282698</v>
+        <v>7.459206084282783</v>
       </c>
       <c r="I25">
-        <v>0.3327581561749682</v>
+        <v>0.3327581561749327</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2233970560080749</v>
+        <v>0.2233970560081175</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02406558394962843</v>
+        <v>0.02389465511696898</v>
       </c>
       <c r="D2">
-        <v>0.2000050467277816</v>
+        <v>0.1992258295921232</v>
       </c>
       <c r="E2">
-        <v>0.1815077031368446</v>
+        <v>0.1815627143751328</v>
       </c>
       <c r="F2">
-        <v>7.72161783035429</v>
+        <v>7.707639517052712</v>
       </c>
       <c r="G2">
-        <v>6.477831450544755</v>
+        <v>2.17658052613757</v>
       </c>
       <c r="H2">
-        <v>5.946867989452784</v>
+        <v>4.287651510825668</v>
       </c>
       <c r="I2">
-        <v>0.2642252750362104</v>
+        <v>5.935916717471599</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2639928000843028</v>
       </c>
       <c r="K2">
-        <v>0.1775779207755264</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1774971100276552</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02011078132894539</v>
+        <v>0.01996905508122637</v>
       </c>
       <c r="D3">
-        <v>0.1675427957221558</v>
+        <v>0.1669009562910588</v>
       </c>
       <c r="E3">
-        <v>0.153311119638218</v>
+        <v>0.1533683926250191</v>
       </c>
       <c r="F3">
-        <v>6.521524292124639</v>
+        <v>6.510198718216088</v>
       </c>
       <c r="G3">
-        <v>5.46778466197398</v>
+        <v>1.833769674668957</v>
       </c>
       <c r="H3">
-        <v>5.021143684056824</v>
+        <v>3.623671441348733</v>
       </c>
       <c r="I3">
-        <v>0.2224833260887706</v>
+        <v>5.012266738885614</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2223039744765956</v>
       </c>
       <c r="K3">
-        <v>0.1496738228222618</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1496166363272806</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01783734747968069</v>
+        <v>0.01771213686280149</v>
       </c>
       <c r="D4">
-        <v>0.1488358154664127</v>
+        <v>0.1482706488337442</v>
       </c>
       <c r="E4">
-        <v>0.1370635879177158</v>
+        <v>0.1371200171004929</v>
       </c>
       <c r="F4">
-        <v>5.827832095380359</v>
+        <v>5.817950032628943</v>
       </c>
       <c r="G4">
-        <v>4.884031423640323</v>
+        <v>1.635426735517598</v>
       </c>
       <c r="H4">
-        <v>4.486094608390715</v>
+        <v>3.240070068133804</v>
       </c>
       <c r="I4">
-        <v>0.1984272461225487</v>
+        <v>4.478347129948446</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1982753127003072</v>
       </c>
       <c r="K4">
-        <v>0.1335955110235538</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1335498091623926</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01694116714082128</v>
+        <v>0.01682241692713404</v>
       </c>
       <c r="D5">
-        <v>0.1414543067797496</v>
+        <v>0.1409189298223765</v>
       </c>
       <c r="E5">
-        <v>0.130655348301719</v>
+        <v>0.1307110437371541</v>
       </c>
       <c r="F5">
-        <v>5.553766890568255</v>
+        <v>5.544438308661512</v>
       </c>
       <c r="G5">
-        <v>4.653414297589734</v>
+        <v>1.557018924973278</v>
       </c>
       <c r="H5">
-        <v>4.274714604535802</v>
+        <v>3.088561917919691</v>
       </c>
       <c r="I5">
-        <v>0.1889374084832802</v>
+        <v>4.26740033872241</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1887956950500929</v>
       </c>
       <c r="K5">
-        <v>0.127253679971389</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1272121113047113</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01679397047507436</v>
+        <v>0.01667627877051103</v>
       </c>
       <c r="D6">
-        <v>0.1402415666509569</v>
+        <v>0.1397110596615221</v>
       </c>
       <c r="E6">
-        <v>0.1296027408103555</v>
+        <v>0.1296582947067435</v>
       </c>
       <c r="F6">
-        <v>5.508723378789085</v>
+        <v>5.499484880434323</v>
       </c>
       <c r="G6">
-        <v>4.615512208942278</v>
+        <v>1.544129579648001</v>
       </c>
       <c r="H6">
-        <v>4.239974002261988</v>
+        <v>3.063663709879819</v>
       </c>
       <c r="I6">
-        <v>0.187378490215746</v>
+        <v>4.232730253332193</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1872384244207126</v>
       </c>
       <c r="K6">
-        <v>0.1262119480882866</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1261710375760572</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01782514867892715</v>
+        <v>0.01770002618553335</v>
       </c>
       <c r="D7">
-        <v>0.1487353633032029</v>
+        <v>0.1481706037899357</v>
       </c>
       <c r="E7">
-        <v>0.1369763662895096</v>
+        <v>0.1370327869746113</v>
       </c>
       <c r="F7">
-        <v>5.824103636451184</v>
+        <v>5.814229165916004</v>
       </c>
       <c r="G7">
-        <v>4.880894000155109</v>
+        <v>1.634360241575052</v>
       </c>
       <c r="H7">
-        <v>4.483218907612638</v>
+        <v>3.238008727376808</v>
       </c>
       <c r="I7">
-        <v>0.1982980897799109</v>
+        <v>4.475477371080359</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1981462976645361</v>
       </c>
       <c r="K7">
-        <v>0.1335091952194531</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1334635510862441</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02266386221722172</v>
+        <v>0.02250335667003611</v>
       </c>
       <c r="D8">
-        <v>0.188512334607438</v>
+        <v>0.1877824164651969</v>
       </c>
       <c r="E8">
-        <v>0.171526723121346</v>
+        <v>0.1715831044206411</v>
       </c>
       <c r="F8">
-        <v>7.297337985398315</v>
+        <v>7.284321260573762</v>
       </c>
       <c r="G8">
-        <v>6.120715941660848</v>
+        <v>2.055424709064312</v>
       </c>
       <c r="H8">
-        <v>5.619574819355734</v>
+        <v>4.052862333469932</v>
       </c>
       <c r="I8">
-        <v>0.249449564831842</v>
+        <v>5.609375285717562</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2492367429415978</v>
       </c>
       <c r="K8">
-        <v>0.1676999572511626</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1676280742341376</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03394515619232408</v>
+        <v>0.03369800411945789</v>
       </c>
       <c r="D9">
-        <v>0.2805024076425155</v>
+        <v>0.279353558219583</v>
       </c>
       <c r="E9">
-        <v>0.2512487686189431</v>
+        <v>0.251273504180503</v>
       </c>
       <c r="F9">
-        <v>10.67111797980786</v>
+        <v>10.64959927668883</v>
       </c>
       <c r="G9">
-        <v>8.961370887499186</v>
+        <v>3.017901552446489</v>
       </c>
       <c r="H9">
-        <v>8.222633958194365</v>
+        <v>5.921022928344996</v>
       </c>
       <c r="I9">
-        <v>0.3675200884857261</v>
+        <v>8.205793928781105</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3671192802664081</v>
       </c>
       <c r="K9">
-        <v>0.2466373260717845</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2464735045355226</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04464377714679557</v>
+        <v>0.04430637304488982</v>
       </c>
       <c r="D10">
-        <v>0.3664396971549593</v>
+        <v>0.3648313459158317</v>
       </c>
       <c r="E10">
-        <v>0.3251098570982904</v>
+        <v>0.3250482793011003</v>
       </c>
       <c r="F10">
-        <v>13.76746229670823</v>
+        <v>13.73580621731344</v>
       </c>
       <c r="G10">
-        <v>11.57085382192773</v>
+        <v>3.899867772151026</v>
       </c>
       <c r="H10">
-        <v>10.61284886572474</v>
+        <v>7.637387483467847</v>
       </c>
       <c r="I10">
-        <v>0.4771306135253823</v>
+        <v>10.58810491632374</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4764697262664654</v>
       </c>
       <c r="K10">
-        <v>0.3199003717348319</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.3195942889379211</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05067300697240285</v>
+        <v>0.05027926624142509</v>
       </c>
       <c r="D11">
-        <v>0.4141977057560524</v>
+        <v>0.4122899144179257</v>
       </c>
       <c r="E11">
-        <v>0.365775371675916</v>
+        <v>0.3656300423018024</v>
       </c>
       <c r="F11">
-        <v>15.46038508768794</v>
+        <v>15.42171245859384</v>
       </c>
       <c r="G11">
-        <v>12.99883089447755</v>
+        <v>4.381642748592242</v>
       </c>
       <c r="H11">
-        <v>11.92029946797368</v>
+        <v>8.57624620783568</v>
       </c>
       <c r="I11">
-        <v>0.5376236105273478</v>
+        <v>11.8900910242381</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5367645697442853</v>
       </c>
       <c r="K11">
-        <v>0.3603143517569194</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.3598934634292377</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0532425592687602</v>
+        <v>0.05282312450732718</v>
       </c>
       <c r="D12">
-        <v>0.4343892371599196</v>
+        <v>0.4323416308924806</v>
       </c>
       <c r="E12">
-        <v>0.3828703135058547</v>
+        <v>0.382679022633674</v>
       </c>
       <c r="F12">
-        <v>16.16952632170626</v>
+        <v>16.1274784384147</v>
       </c>
       <c r="G12">
-        <v>13.59729076264128</v>
+        <v>4.583351178782209</v>
       </c>
       <c r="H12">
-        <v>12.46811525513459</v>
+        <v>8.969551940454693</v>
       </c>
       <c r="I12">
-        <v>0.5630916965407096</v>
+        <v>12.43527951550965</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5621329841471052</v>
       </c>
       <c r="K12">
-        <v>0.3773234738772118</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.3768434618317897</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0526732097585807</v>
+        <v>0.05225956904209994</v>
       </c>
       <c r="D13">
-        <v>0.4299239456802155</v>
+        <v>0.427908044081974</v>
       </c>
       <c r="E13">
-        <v>0.3790951654141068</v>
+        <v>0.3789146615647354</v>
       </c>
       <c r="F13">
-        <v>16.01305336750926</v>
+        <v>15.97177606555141</v>
       </c>
       <c r="G13">
-        <v>13.46522367436873</v>
+        <v>4.538849558758244</v>
       </c>
       <c r="H13">
-        <v>12.3472313303059</v>
+        <v>8.882768681480911</v>
       </c>
       <c r="I13">
-        <v>0.5574653763814226</v>
+        <v>12.31499534278711</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5565296461739209</v>
       </c>
       <c r="K13">
-        <v>0.3735661889892725</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.3730998777715584</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05087756759061079</v>
+        <v>0.05048182274182977</v>
       </c>
       <c r="D14">
-        <v>0.4158087908601118</v>
+        <v>0.413890166799618</v>
       </c>
       <c r="E14">
-        <v>0.3671416259318079</v>
+        <v>0.3669928860106495</v>
       </c>
       <c r="F14">
-        <v>15.51711608072981</v>
+        <v>15.47818409359485</v>
       </c>
       <c r="G14">
-        <v>13.04670060851197</v>
+        <v>4.39778167501558</v>
       </c>
       <c r="H14">
-        <v>11.9641212584913</v>
+        <v>8.607710382835478</v>
       </c>
       <c r="I14">
-        <v>0.5396581789587387</v>
+        <v>11.93371090238224</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5387915727117445</v>
       </c>
       <c r="K14">
-        <v>0.3616732890456973</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.3612479410984406</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0498204036123866</v>
+        <v>0.04943494393412351</v>
       </c>
       <c r="D15">
-        <v>0.4074760472374948</v>
+        <v>0.4056128857812382</v>
       </c>
       <c r="E15">
-        <v>0.3600710871252559</v>
+        <v>0.359939536255979</v>
       </c>
       <c r="F15">
-        <v>15.22342250776188</v>
+        <v>15.18581448868275</v>
       </c>
       <c r="G15">
-        <v>12.79889396564957</v>
+        <v>4.314227047960259</v>
       </c>
       <c r="H15">
-        <v>11.73726395431783</v>
+        <v>8.444822738656939</v>
       </c>
       <c r="I15">
-        <v>0.5291306289912399</v>
+        <v>11.70788437046386</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5283024729114913</v>
       </c>
       <c r="K15">
-        <v>0.3546414509143787</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.3542387163076697</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04428116764970724</v>
+        <v>0.0439470026723896</v>
       </c>
       <c r="D16">
-        <v>0.3635511325594507</v>
+        <v>0.3619597000087111</v>
       </c>
       <c r="E16">
-        <v>0.3226405937991288</v>
+        <v>0.3225831216540058</v>
       </c>
       <c r="F16">
-        <v>13.66439481872658</v>
+        <v>13.63312599457066</v>
       </c>
       <c r="G16">
-        <v>11.48394728012104</v>
+        <v>3.870526580892118</v>
       </c>
       <c r="H16">
-        <v>10.53326419767549</v>
+        <v>7.580235406927414</v>
       </c>
       <c r="I16">
-        <v>0.4734611437371399</v>
+        <v>10.50882197074881</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4728107993958872</v>
       </c>
       <c r="K16">
-        <v>0.3174483587534667</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.3171482588801595</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04123872867331357</v>
+        <v>0.04093118070985469</v>
       </c>
       <c r="D17">
-        <v>0.3392454444500999</v>
+        <v>0.337791819949345</v>
       </c>
       <c r="E17">
-        <v>0.3018231219997034</v>
+        <v>0.3017964983303258</v>
       </c>
       <c r="F17">
-        <v>12.7942416386133</v>
+        <v>12.76608847910586</v>
       </c>
       <c r="G17">
-        <v>10.75036476422457</v>
+        <v>3.622767318665268</v>
       </c>
       <c r="H17">
-        <v>9.861429428224767</v>
+        <v>7.097771254766201</v>
       </c>
       <c r="I17">
-        <v>0.4425404672209439</v>
+        <v>9.839415271449241</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4419732954478306</v>
       </c>
       <c r="K17">
-        <v>0.2967845017274087</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2965310510981354</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03958814383948805</v>
+        <v>0.03929465221254702</v>
       </c>
       <c r="D18">
-        <v>0.3260085892600415</v>
+        <v>0.3246268699997472</v>
       </c>
       <c r="E18">
-        <v>0.2904574513560902</v>
+        <v>0.2904450613210088</v>
       </c>
       <c r="F18">
-        <v>12.31823970581655</v>
+        <v>12.29168422967626</v>
       </c>
       <c r="G18">
-        <v>10.34916682311459</v>
+        <v>3.487201061961287</v>
       </c>
       <c r="H18">
-        <v>9.493960483739357</v>
+        <v>6.833887001360353</v>
       </c>
       <c r="I18">
-        <v>0.4256696091791312</v>
+        <v>9.473191832721398</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4251438939718639</v>
       </c>
       <c r="K18">
-        <v>0.2855085449173629</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2852779391233753</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03904410222718724</v>
+        <v>0.03875518960316526</v>
       </c>
       <c r="D19">
-        <v>0.3216380950245821</v>
+        <v>0.3202796708822291</v>
       </c>
       <c r="E19">
-        <v>0.2867006201666484</v>
+        <v>0.2866925636901456</v>
       </c>
       <c r="F19">
-        <v>12.16075716944016</v>
+        <v>12.1347150794777</v>
       </c>
       <c r="G19">
-        <v>10.21644702550543</v>
+        <v>3.442344354482685</v>
       </c>
       <c r="H19">
-        <v>9.372392441826179</v>
+        <v>6.746589216966044</v>
       </c>
       <c r="I19">
-        <v>0.4200946505452947</v>
+        <v>9.352024075213308</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4195820765493892</v>
       </c>
       <c r="K19">
-        <v>0.2817822225812208</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2815587948745062</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0415517498900968</v>
+        <v>0.04124150721519015</v>
       </c>
       <c r="D20">
-        <v>0.3417517686452669</v>
+        <v>0.3402842908992056</v>
       </c>
       <c r="E20">
-        <v>0.3039729528058999</v>
+        <v>0.3039434390110074</v>
       </c>
       <c r="F20">
-        <v>12.88420442491707</v>
+        <v>12.85574122187728</v>
       </c>
       <c r="G20">
-        <v>10.82619726855899</v>
+        <v>3.648386176875619</v>
       </c>
       <c r="H20">
-        <v>9.930883459667967</v>
+        <v>7.147647816181603</v>
       </c>
       <c r="I20">
-        <v>0.4457324415021588</v>
+        <v>9.908627636104541</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4451571285919584</v>
       </c>
       <c r="K20">
-        <v>0.2989178132465256</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2986598426003795</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05139569010978562</v>
+        <v>0.05099483825484441</v>
       </c>
       <c r="D21">
-        <v>0.4198866353021486</v>
+        <v>0.4179403508927066</v>
       </c>
       <c r="E21">
-        <v>0.3705980586920319</v>
+        <v>0.3704404941266404</v>
       </c>
       <c r="F21">
-        <v>15.66059474417034</v>
+        <v>15.62099884390534</v>
       </c>
       <c r="G21">
-        <v>13.16777338788822</v>
+        <v>4.438596954321071</v>
       </c>
       <c r="H21">
-        <v>12.07495367118818</v>
+        <v>8.687286833359991</v>
       </c>
       <c r="I21">
-        <v>0.5448060245083255</v>
+        <v>12.04402647534235</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5439199794296812</v>
       </c>
       <c r="K21">
-        <v>0.3651115605910817</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.3646747319015233</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05967618605561142</v>
+        <v>0.05918646429405072</v>
       </c>
       <c r="D22">
-        <v>0.4844916653658657</v>
+        <v>0.4820514778704421</v>
       </c>
       <c r="E22">
-        <v>0.4250069153102558</v>
+        <v>0.4246655836547006</v>
       </c>
       <c r="F22">
-        <v>17.91097029814568</v>
+        <v>17.85914917023575</v>
       </c>
       <c r="G22">
-        <v>15.06776772919596</v>
+        <v>5.078372464332944</v>
       </c>
       <c r="H22">
-        <v>13.81378451195656</v>
+        <v>9.935285740374354</v>
       </c>
       <c r="I22">
-        <v>0.6259777566761571</v>
+        <v>13.77334509337524</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6247172744490825</v>
       </c>
       <c r="K22">
-        <v>0.4193058698871184</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.4186429226305748</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05500759981958225</v>
+        <v>0.05456980495332431</v>
       </c>
       <c r="D23">
-        <v>0.4482002057285968</v>
+        <v>0.4460514624428669</v>
       </c>
       <c r="E23">
-        <v>0.3945268617457032</v>
+        <v>0.3942997757403575</v>
       </c>
       <c r="F23">
-        <v>16.65220272261718</v>
+        <v>16.60767708792253</v>
       </c>
       <c r="G23">
-        <v>14.00474095033351</v>
+        <v>4.720605040051282</v>
       </c>
       <c r="H23">
-        <v>12.84103719856046</v>
+        <v>9.237249888929711</v>
       </c>
       <c r="I23">
-        <v>0.5804719205461453</v>
+        <v>12.8062732493942</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5794384505036163</v>
       </c>
       <c r="K23">
-        <v>0.3889289064419259</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.3884040728412899</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04140993311308705</v>
+        <v>0.04110091248114145</v>
       </c>
       <c r="D24">
-        <v>0.3406164159120237</v>
+        <v>0.3391552233079835</v>
       </c>
       <c r="E24">
-        <v>0.3029991782446899</v>
+        <v>0.3029709815770829</v>
       </c>
       <c r="F24">
-        <v>12.84345831630009</v>
+        <v>12.81513586707837</v>
       </c>
       <c r="G24">
-        <v>10.79185077634548</v>
+        <v>3.636782943266638</v>
       </c>
       <c r="H24">
-        <v>9.899426069213632</v>
+        <v>7.125057507855388</v>
       </c>
       <c r="I24">
-        <v>0.4442865902979136</v>
+        <v>9.877279956408813</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4437149771193134</v>
       </c>
       <c r="K24">
-        <v>0.297951503045276</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2976955878386107</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.030602203264678</v>
+        <v>0.03038144795767295</v>
       </c>
       <c r="D25">
-        <v>0.2533731219912454</v>
+        <v>0.2523541255276029</v>
       </c>
       <c r="E25">
-        <v>0.227788793396023</v>
+        <v>0.2278281902465764</v>
       </c>
       <c r="F25">
-        <v>9.681815914178173</v>
+        <v>9.663011341181715</v>
       </c>
       <c r="G25">
-        <v>8.12815226185424</v>
+        <v>2.735865353374066</v>
       </c>
       <c r="H25">
-        <v>7.459206084282783</v>
+        <v>5.372962170909858</v>
       </c>
       <c r="I25">
-        <v>0.3327581561749327</v>
+        <v>7.444484555438549</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3324206954421882</v>
       </c>
       <c r="K25">
-        <v>0.2233970560081175</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.2232656278049276</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02389465511696898</v>
+        <v>0.1917316549992876</v>
       </c>
       <c r="D2">
-        <v>0.1992258295921232</v>
+        <v>0.2723280207611793</v>
       </c>
       <c r="E2">
-        <v>0.1815627143751328</v>
+        <v>0.03484966211057028</v>
       </c>
       <c r="F2">
-        <v>7.707639517052712</v>
+        <v>13.0442147886169</v>
       </c>
       <c r="G2">
-        <v>2.17658052613757</v>
+        <v>0.0007353493264411969</v>
       </c>
       <c r="H2">
-        <v>4.287651510825668</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.935916717471599</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2639928000843028</v>
+        <v>0.4049864517331088</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.35494104089065</v>
       </c>
       <c r="L2">
-        <v>0.1774971100276552</v>
+        <v>0.01781369986518477</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.7499369792759438</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01996905508122637</v>
+        <v>0.1725988284965752</v>
       </c>
       <c r="D3">
-        <v>0.1669009562910588</v>
+        <v>0.2220400024079225</v>
       </c>
       <c r="E3">
-        <v>0.1533683926250191</v>
+        <v>0.03372532461263411</v>
       </c>
       <c r="F3">
-        <v>6.510198718216088</v>
+        <v>11.28196402442256</v>
       </c>
       <c r="G3">
-        <v>1.833769674668957</v>
+        <v>0.0007781177811910101</v>
       </c>
       <c r="H3">
-        <v>3.623671441348733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.012266738885614</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2223039744765956</v>
+        <v>0.3604433340147182</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.32664483940744</v>
       </c>
       <c r="L3">
-        <v>0.1496166363272806</v>
+        <v>0.01785935856007193</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.8050191367629509</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01771213686280149</v>
+        <v>0.1623340137895894</v>
       </c>
       <c r="D4">
-        <v>0.1482706488337442</v>
+        <v>0.195770816013507</v>
       </c>
       <c r="E4">
-        <v>0.1371200171004929</v>
+        <v>0.03314294109086369</v>
       </c>
       <c r="F4">
-        <v>5.817950032628943</v>
+        <v>10.356005335449</v>
       </c>
       <c r="G4">
-        <v>1.635426735517598</v>
+        <v>0.0008031612980753185</v>
       </c>
       <c r="H4">
-        <v>3.240070068133804</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4.478347129948446</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1982753127003072</v>
+        <v>0.337279632357621</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.20019656707311</v>
       </c>
       <c r="L4">
-        <v>0.1335498091623926</v>
+        <v>0.01789492200604315</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.8394344401750686</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01682241692713404</v>
+        <v>0.1584288698165039</v>
       </c>
       <c r="D5">
-        <v>0.1409189298223765</v>
+        <v>0.1859009710568245</v>
       </c>
       <c r="E5">
-        <v>0.1307110437371541</v>
+        <v>0.03292742801941806</v>
       </c>
       <c r="F5">
-        <v>5.544438308661512</v>
+        <v>10.00746544234241</v>
       </c>
       <c r="G5">
-        <v>1.557018924973278</v>
+        <v>0.0008131895948347151</v>
       </c>
       <c r="H5">
-        <v>3.088561917919691</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4.26740033872241</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1887956950500929</v>
+        <v>0.3286192274941868</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.762784486488584</v>
       </c>
       <c r="L5">
-        <v>0.1272121113047113</v>
+        <v>0.01791107711879736</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.8536803148207497</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01667627877051103</v>
+        <v>0.1577951029957489</v>
       </c>
       <c r="D6">
-        <v>0.1397110596615221</v>
+        <v>0.1843054097726622</v>
       </c>
       <c r="E6">
-        <v>0.1296582947067435</v>
+        <v>0.03289284125258618</v>
       </c>
       <c r="F6">
-        <v>5.499484880434323</v>
+        <v>9.95109913830953</v>
       </c>
       <c r="G6">
-        <v>1.544129579648001</v>
+        <v>0.0008148469328257287</v>
       </c>
       <c r="H6">
-        <v>3.063663709879819</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4.232730253332193</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1872384244207126</v>
+        <v>0.3272221858565274</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.691275688965504</v>
       </c>
       <c r="L6">
-        <v>0.1261710375760572</v>
+        <v>0.01791385609204621</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.8560607077592621</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01770002618553335</v>
+        <v>0.1622803213880246</v>
       </c>
       <c r="D7">
-        <v>0.1481706037899357</v>
+        <v>0.1956346612555535</v>
       </c>
       <c r="E7">
-        <v>0.1370327869746113</v>
+        <v>0.03313995184726082</v>
       </c>
       <c r="F7">
-        <v>5.814229165916004</v>
+        <v>10.35119905132879</v>
       </c>
       <c r="G7">
-        <v>1.634360241575052</v>
+        <v>0.0008032971264337121</v>
       </c>
       <c r="H7">
-        <v>3.238008727376808</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>4.475477371080359</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1981462976645361</v>
+        <v>0.3371599646811205</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.19421851174613</v>
       </c>
       <c r="L7">
-        <v>0.1334635510862441</v>
+        <v>0.01789513334185422</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.8396255974182054</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02250335667003611</v>
+        <v>0.1847552566279234</v>
       </c>
       <c r="D8">
-        <v>0.1877824164651969</v>
+        <v>0.2537872521687063</v>
       </c>
       <c r="E8">
-        <v>0.1715831044206411</v>
+        <v>0.03443556994753294</v>
       </c>
       <c r="F8">
-        <v>7.284321260573762</v>
+        <v>12.39630751453558</v>
       </c>
       <c r="G8">
-        <v>2.055424709064312</v>
+        <v>0.0007504455477294478</v>
       </c>
       <c r="H8">
-        <v>4.052862333469932</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>5.609375285717562</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2492367429415978</v>
+        <v>0.388552492776256</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.6246472326427</v>
       </c>
       <c r="L8">
-        <v>0.1676280742341376</v>
+        <v>0.01782767939537511</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.7688620727218591</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03369800411945789</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D9">
-        <v>0.279353558219583</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E9">
-        <v>0.251273504180503</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F9">
-        <v>10.64959927668883</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G9">
-        <v>3.017901552446489</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H9">
-        <v>5.921022928344996</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>8.205793928781105</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3671192802664081</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L9">
-        <v>0.2464735045355226</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04430637304488982</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D10">
-        <v>0.3648313459158317</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E10">
-        <v>0.3250482793011003</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F10">
-        <v>13.73580621731344</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G10">
-        <v>3.899867772151026</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H10">
-        <v>7.637387483467847</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>10.58810491632374</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4764697262664654</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L10">
-        <v>0.3195942889379211</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05027926624142509</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D11">
-        <v>0.4122899144179257</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E11">
-        <v>0.3656300423018024</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F11">
-        <v>15.42171245859384</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G11">
-        <v>4.381642748592242</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H11">
-        <v>8.57624620783568</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>11.8900910242381</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5367645697442853</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L11">
-        <v>0.3598934634292377</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05282312450732718</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D12">
-        <v>0.4323416308924806</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E12">
-        <v>0.382679022633674</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F12">
-        <v>16.1274784384147</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G12">
-        <v>4.583351178782209</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H12">
-        <v>8.969551940454693</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>12.43527951550965</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5621329841471052</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L12">
-        <v>0.3768434618317897</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05225956904209994</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D13">
-        <v>0.427908044081974</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E13">
-        <v>0.3789146615647354</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F13">
-        <v>15.97177606555141</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G13">
-        <v>4.538849558758244</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H13">
-        <v>8.882768681480911</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>12.31499534278711</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5565296461739209</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L13">
-        <v>0.3730998777715584</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05048182274182977</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D14">
-        <v>0.413890166799618</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E14">
-        <v>0.3669928860106495</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F14">
-        <v>15.47818409359485</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G14">
-        <v>4.39778167501558</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H14">
-        <v>8.607710382835478</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>11.93371090238224</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5387915727117445</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L14">
-        <v>0.3612479410984406</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04943494393412351</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D15">
-        <v>0.4056128857812382</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E15">
-        <v>0.359939536255979</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F15">
-        <v>15.18581448868275</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G15">
-        <v>4.314227047960259</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H15">
-        <v>8.444822738656939</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>11.70788437046386</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5283024729114913</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L15">
-        <v>0.3542387163076697</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0439470026723896</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D16">
-        <v>0.3619597000087111</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E16">
-        <v>0.3225831216540058</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F16">
-        <v>13.63312599457066</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G16">
-        <v>3.870526580892118</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H16">
-        <v>7.580235406927414</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>10.50882197074881</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4728107993958872</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L16">
-        <v>0.3171482588801595</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04093118070985469</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D17">
-        <v>0.337791819949345</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E17">
-        <v>0.3017964983303258</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F17">
-        <v>12.76608847910586</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G17">
-        <v>3.622767318665268</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H17">
-        <v>7.097771254766201</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>9.839415271449241</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4419732954478306</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L17">
-        <v>0.2965310510981354</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03929465221254702</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D18">
-        <v>0.3246268699997472</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E18">
-        <v>0.2904450613210088</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F18">
-        <v>12.29168422967626</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G18">
-        <v>3.487201061961287</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H18">
-        <v>6.833887001360353</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>9.473191832721398</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4251438939718639</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L18">
-        <v>0.2852779391233753</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03875518960316526</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D19">
-        <v>0.3202796708822291</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E19">
-        <v>0.2866925636901456</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F19">
-        <v>12.1347150794777</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G19">
-        <v>3.442344354482685</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H19">
-        <v>6.746589216966044</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>9.352024075213308</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4195820765493892</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L19">
-        <v>0.2815587948745062</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04124150721519015</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D20">
-        <v>0.3402842908992056</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E20">
-        <v>0.3039434390110074</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F20">
-        <v>12.85574122187728</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G20">
-        <v>3.648386176875619</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H20">
-        <v>7.147647816181603</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>9.908627636104541</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4451571285919584</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L20">
-        <v>0.2986598426003795</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05099483825484441</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D21">
-        <v>0.4179403508927066</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E21">
-        <v>0.3704404941266404</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F21">
-        <v>15.62099884390534</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G21">
-        <v>4.438596954321071</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H21">
-        <v>8.687286833359991</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>12.04402647534235</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5439199794296812</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L21">
-        <v>0.3646747319015233</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05918646429405072</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D22">
-        <v>0.4820514778704421</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E22">
-        <v>0.4246655836547006</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F22">
-        <v>17.85914917023575</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G22">
-        <v>5.078372464332944</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H22">
-        <v>9.935285740374354</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>13.77334509337524</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6247172744490825</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L22">
-        <v>0.4186429226305748</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05456980495332431</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D23">
-        <v>0.4460514624428669</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E23">
-        <v>0.3942997757403575</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F23">
-        <v>16.60767708792253</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G23">
-        <v>4.720605040051282</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H23">
-        <v>9.237249888929711</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>12.8062732493942</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5794384505036163</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L23">
-        <v>0.3884040728412899</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04110091248114145</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D24">
-        <v>0.3391552233079835</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E24">
-        <v>0.3029709815770829</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F24">
-        <v>12.81513586707837</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G24">
-        <v>3.636782943266638</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H24">
-        <v>7.125057507855388</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>9.877279956408813</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4437149771193134</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L24">
-        <v>0.2976955878386107</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03038144795767295</v>
+        <v>0.2495581971940055</v>
       </c>
       <c r="D25">
-        <v>0.2523541255276029</v>
+        <v>0.4354202597021839</v>
       </c>
       <c r="E25">
-        <v>0.2278281902465764</v>
+        <v>0.03833109811945157</v>
       </c>
       <c r="F25">
-        <v>9.663011341181715</v>
+        <v>18.63662164410391</v>
       </c>
       <c r="G25">
-        <v>2.735865353374066</v>
+        <v>0.0006249478677053731</v>
       </c>
       <c r="H25">
-        <v>5.372962170909858</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>7.444484555438549</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3324206954421882</v>
+        <v>0.5485456631204499</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.11959565296161</v>
       </c>
       <c r="L25">
-        <v>0.2232656278049276</v>
+        <v>0.01778901535336619</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.6271994032523764</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1917316549992876</v>
+        <v>0.154301464812761</v>
       </c>
       <c r="D2">
-        <v>0.2723280207611793</v>
+        <v>0.1772636768821201</v>
       </c>
       <c r="E2">
-        <v>0.03484966211057028</v>
+        <v>0.6570576617508479</v>
       </c>
       <c r="F2">
-        <v>13.0442147886169</v>
+        <v>0.1679315555675309</v>
       </c>
       <c r="G2">
-        <v>0.0007353493264411969</v>
+        <v>0.3380488706342106</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.149784057132635</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4049864517331088</v>
+        <v>1.376607353932229</v>
       </c>
       <c r="K2">
-        <v>13.35494104089065</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01781369986518477</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>33.67770879980134</v>
       </c>
       <c r="N2">
-        <v>0.7499369792759438</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9858007488466285</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1725988284965752</v>
+        <v>0.132520097219313</v>
       </c>
       <c r="D3">
-        <v>0.2220400024079225</v>
+        <v>0.1530732417528782</v>
       </c>
       <c r="E3">
-        <v>0.03372532461263411</v>
+        <v>0.5511044046736373</v>
       </c>
       <c r="F3">
-        <v>11.28196402442256</v>
+        <v>0.1244771865570833</v>
       </c>
       <c r="G3">
-        <v>0.0007781177811910101</v>
+        <v>0.2682581071530592</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.134027268630625</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3604433340147182</v>
+        <v>1.152597564380443</v>
       </c>
       <c r="K3">
-        <v>11.32664483940744</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.01785935856007193</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>28.7402420293534</v>
       </c>
       <c r="N3">
-        <v>0.8050191367629509</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8039355213506951</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1623340137895894</v>
+        <v>0.1194463011574953</v>
       </c>
       <c r="D4">
-        <v>0.195770816013507</v>
+        <v>0.1400439570119829</v>
       </c>
       <c r="E4">
-        <v>0.03314294109086369</v>
+        <v>0.4912544028385994</v>
       </c>
       <c r="F4">
-        <v>10.356005335449</v>
+        <v>0.107152459967093</v>
       </c>
       <c r="G4">
-        <v>0.0008031612980753185</v>
+        <v>0.2321183259846933</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1275277966595283</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.337279632357621</v>
+        <v>1.025110697354336</v>
       </c>
       <c r="K4">
-        <v>10.20019656707311</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.01789492200604315</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>25.83030563669081</v>
       </c>
       <c r="N4">
-        <v>0.8394344401750686</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7131424818845318</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1584288698165039</v>
+        <v>0.1141801327163989</v>
       </c>
       <c r="D5">
-        <v>0.1859009710568245</v>
+        <v>0.1350962788274046</v>
       </c>
       <c r="E5">
-        <v>0.03292742801941806</v>
+        <v>0.4678801104889061</v>
       </c>
       <c r="F5">
-        <v>10.00746544234241</v>
+        <v>0.1020296906110154</v>
       </c>
       <c r="G5">
-        <v>0.0008131895948347151</v>
+        <v>0.2187777877042265</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1255494859399278</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3286192274941868</v>
+        <v>0.9751112848437629</v>
       </c>
       <c r="K5">
-        <v>9.762784486488584</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.01791107711879736</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>24.66762928881008</v>
       </c>
       <c r="N5">
-        <v>0.8536803148207497</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6804849828120183</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1577951029957489</v>
+        <v>0.1133090428275807</v>
       </c>
       <c r="D6">
-        <v>0.1843054097726622</v>
+        <v>0.1342942180657758</v>
       </c>
       <c r="E6">
-        <v>0.03289284125258618</v>
+        <v>0.4640529375741878</v>
       </c>
       <c r="F6">
-        <v>9.95109913830953</v>
+        <v>0.1012856639152204</v>
       </c>
       <c r="G6">
-        <v>0.0008148469328257287</v>
+        <v>0.2166387800125236</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1252582407915668</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3272221858565274</v>
+        <v>0.9669127247042013</v>
       </c>
       <c r="K6">
-        <v>9.691275688965504</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.01791385609204621</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>24.47578205057397</v>
       </c>
       <c r="N6">
-        <v>0.8560607077592621</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6753015984696589</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1622803213880246</v>
+        <v>0.1193750473571953</v>
       </c>
       <c r="D7">
-        <v>0.1956346612555535</v>
+        <v>0.1399758751955176</v>
       </c>
       <c r="E7">
-        <v>0.03313995184726082</v>
+        <v>0.4909353928742917</v>
       </c>
       <c r="F7">
-        <v>10.35119905132879</v>
+        <v>0.1070760096211494</v>
       </c>
       <c r="G7">
-        <v>0.0008032971264337121</v>
+        <v>0.2319331460816301</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.1274985517902394</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3371599646811205</v>
+        <v>1.024429137212621</v>
       </c>
       <c r="K7">
-        <v>10.19421851174613</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.01789513334185422</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>25.81454017282169</v>
       </c>
       <c r="N7">
-        <v>0.8396255974182054</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7126855285141431</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1847552566279234</v>
+        <v>0.1467197185374118</v>
       </c>
       <c r="D8">
-        <v>0.2537872521687063</v>
+        <v>0.1684769857266417</v>
       </c>
       <c r="E8">
-        <v>0.03443556994753294</v>
+        <v>0.6192406496811458</v>
       </c>
       <c r="F8">
-        <v>12.39630751453558</v>
+        <v>0.1507228870996826</v>
       </c>
       <c r="G8">
-        <v>0.0007504455477294478</v>
+        <v>0.3123872870846185</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1436051020782259</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.388552492776256</v>
+        <v>1.296882387582059</v>
       </c>
       <c r="K8">
-        <v>12.6246472326427</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.01782767939537511</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>31.94487060371569</v>
       </c>
       <c r="N8">
-        <v>0.7688620727218591</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9181450183012032</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2495581971940055</v>
+        <v>0.203542283322534</v>
       </c>
       <c r="D9">
-        <v>0.4354202597021839</v>
+        <v>0.2453289830122571</v>
       </c>
       <c r="E9">
-        <v>0.03833109811945157</v>
+        <v>0.9316923165991682</v>
       </c>
       <c r="F9">
-        <v>18.63662164410391</v>
+        <v>0.3369922847261293</v>
       </c>
       <c r="G9">
-        <v>0.0006249478677053731</v>
+        <v>0.5423383015990737</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2084071152220304</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5485456631204499</v>
+        <v>1.94915495475621</v>
       </c>
       <c r="K9">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>45.42008985272565</v>
       </c>
       <c r="N9">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.543625486273982</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2495581971940055</v>
+        <v>0.2489177504103282</v>
       </c>
       <c r="D10">
-        <v>0.4354202597021839</v>
+        <v>0.3304598099706624</v>
       </c>
       <c r="E10">
-        <v>0.03833109811945157</v>
+        <v>1.245606657805652</v>
       </c>
       <c r="F10">
-        <v>18.63662164410391</v>
+        <v>0.595887655819304</v>
       </c>
       <c r="G10">
-        <v>0.0006249478677053731</v>
+        <v>0.7980156500742766</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.294290304646907</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5485456631204499</v>
+        <v>2.592409665372486</v>
       </c>
       <c r="K10">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>57.36315646149524</v>
       </c>
       <c r="N10">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.267273309276987</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2495581971940055</v>
+        <v>0.2710516460715269</v>
       </c>
       <c r="D11">
-        <v>0.4354202597021839</v>
+        <v>0.383695001044984</v>
       </c>
       <c r="E11">
-        <v>0.03833109811945157</v>
+        <v>1.431049289222969</v>
       </c>
       <c r="F11">
-        <v>18.63662164410391</v>
+        <v>0.7696217133764023</v>
       </c>
       <c r="G11">
-        <v>0.0006249478677053731</v>
+        <v>0.953520284061625</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3502059338153316</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5485456631204499</v>
+        <v>2.967876175140475</v>
       </c>
       <c r="K11">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>63.82119344940111</v>
       </c>
       <c r="N11">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.714903799307365</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2495581971940055</v>
+        <v>0.2797692016910531</v>
       </c>
       <c r="D12">
-        <v>0.4354202597021839</v>
+        <v>0.4076190105041348</v>
       </c>
       <c r="E12">
-        <v>0.03833109811945157</v>
+        <v>1.51229092316035</v>
       </c>
       <c r="F12">
-        <v>18.63662164410391</v>
+        <v>0.8491411631033117</v>
       </c>
       <c r="G12">
-        <v>0.0006249478677053731</v>
+        <v>1.021917681379634</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3754193696703538</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5485456631204499</v>
+        <v>3.131435746765106</v>
       </c>
       <c r="K12">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>66.52904352557795</v>
       </c>
       <c r="N12">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.913052967686269</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2495581971940055</v>
+        <v>0.2778735620109103</v>
       </c>
       <c r="D13">
-        <v>0.4354202597021839</v>
+        <v>0.4022509065723625</v>
       </c>
       <c r="E13">
-        <v>0.03833109811945157</v>
+        <v>1.494164288245344</v>
       </c>
       <c r="F13">
-        <v>18.63662164410391</v>
+        <v>0.8312453261370649</v>
       </c>
       <c r="G13">
-        <v>0.0006249478677053731</v>
+        <v>1.00665618887956</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3697646543746771</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5485456631204499</v>
+        <v>3.094989076315613</v>
       </c>
       <c r="K13">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>65.93093013242083</v>
       </c>
       <c r="N13">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.868781190288274</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2495581971940055</v>
+        <v>0.2717610129881507</v>
       </c>
       <c r="D14">
-        <v>0.4354202597021839</v>
+        <v>0.3855714543403366</v>
       </c>
       <c r="E14">
-        <v>0.03833109811945157</v>
+        <v>1.43746487910299</v>
       </c>
       <c r="F14">
-        <v>18.63662164410391</v>
+        <v>0.7758345494803223</v>
       </c>
       <c r="G14">
-        <v>0.0006249478677053731</v>
+        <v>0.9589200864702008</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3521840351138081</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5485456631204499</v>
+        <v>2.980812180619495</v>
       </c>
       <c r="K14">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>64.03760554207713</v>
       </c>
       <c r="N14">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.730521826503775</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2495581971940055</v>
+        <v>0.2680660722756016</v>
       </c>
       <c r="D15">
-        <v>0.4354202597021839</v>
+        <v>0.3759251138155548</v>
       </c>
       <c r="E15">
-        <v>0.03833109811945157</v>
+        <v>1.404401923341226</v>
       </c>
       <c r="F15">
-        <v>18.63662164410391</v>
+        <v>0.7439475203485699</v>
       </c>
       <c r="G15">
-        <v>0.0006249478677053731</v>
+        <v>0.9310991313135304</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3420164635661251</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5485456631204499</v>
+        <v>2.914108873824006</v>
       </c>
       <c r="K15">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>62.91747949718257</v>
       </c>
       <c r="N15">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.65010335507003</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2495581971940055</v>
+        <v>0.2475095608405695</v>
       </c>
       <c r="D16">
-        <v>0.4354202597021839</v>
+        <v>0.3273819987345803</v>
       </c>
       <c r="E16">
-        <v>0.03833109811945157</v>
+        <v>1.234664511280371</v>
       </c>
       <c r="F16">
-        <v>18.63662164410391</v>
+        <v>0.5860353009687032</v>
       </c>
       <c r="G16">
-        <v>0.0006249478677053731</v>
+        <v>0.7888988135727999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2910825052641002</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5485456631204499</v>
+        <v>2.570157272267522</v>
       </c>
       <c r="K16">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>56.96927081181752</v>
       </c>
       <c r="N16">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.241173373244777</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2495581971940055</v>
+        <v>0.2353416232996324</v>
       </c>
       <c r="D17">
-        <v>0.4354202597021839</v>
+        <v>0.3020946944358514</v>
       </c>
       <c r="E17">
-        <v>0.03833109811945157</v>
+        <v>1.143726556506152</v>
       </c>
       <c r="F17">
-        <v>18.63662164410391</v>
+        <v>0.5061863059674607</v>
       </c>
       <c r="G17">
-        <v>0.0006249478677053731</v>
+        <v>0.7135498266333684</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2649237736731607</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5485456631204499</v>
+        <v>2.384772947042876</v>
       </c>
       <c r="K17">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>53.63655153324771</v>
       </c>
       <c r="N17">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.026182028193318</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2495581971940055</v>
+        <v>0.2284734235135772</v>
       </c>
       <c r="D18">
-        <v>0.4354202597021839</v>
+        <v>0.2887734625441709</v>
       </c>
       <c r="E18">
-        <v>0.03833109811945157</v>
+        <v>1.095021446602573</v>
       </c>
       <c r="F18">
-        <v>18.63662164410391</v>
+        <v>0.4650487010460083</v>
       </c>
       <c r="G18">
-        <v>0.0006249478677053731</v>
+        <v>0.673575260660769</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2513281265072465</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5485456631204499</v>
+        <v>2.285141874491785</v>
       </c>
       <c r="K18">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>51.8064422492277</v>
       </c>
       <c r="N18">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.912698909881101</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2495581971940055</v>
+        <v>0.2261680094716922</v>
       </c>
       <c r="D19">
-        <v>0.4354202597021839</v>
+        <v>0.2844436167138724</v>
       </c>
       <c r="E19">
-        <v>0.03833109811945157</v>
+        <v>1.079062350030526</v>
       </c>
       <c r="F19">
-        <v>18.63662164410391</v>
+        <v>0.4518392808828651</v>
       </c>
       <c r="G19">
-        <v>0.0006249478677053731</v>
+        <v>0.6605471727617669</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.246944141871893</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5485456631204499</v>
+        <v>2.25244210241263</v>
       </c>
       <c r="K19">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>51.19964432709577</v>
       </c>
       <c r="N19">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.875809422847084</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2495581971940055</v>
+        <v>0.2366228201567964</v>
       </c>
       <c r="D20">
-        <v>0.4354202597021839</v>
+        <v>0.304652392275699</v>
       </c>
       <c r="E20">
-        <v>0.03833109811945157</v>
+        <v>1.153012342957311</v>
       </c>
       <c r="F20">
-        <v>18.63662164410391</v>
+        <v>0.5141643465809764</v>
       </c>
       <c r="G20">
-        <v>0.0006249478677053731</v>
+        <v>0.7212045871082182</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2675507603159843</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5485456631204499</v>
+        <v>2.403740336115021</v>
       </c>
       <c r="K20">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>53.98181853537653</v>
       </c>
       <c r="N20">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.047960992840643</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2495581971940055</v>
+        <v>0.2735457702929125</v>
       </c>
       <c r="D21">
-        <v>0.4354202597021839</v>
+        <v>0.3903457054746156</v>
       </c>
       <c r="E21">
-        <v>0.03833109811945157</v>
+        <v>1.45375390095063</v>
       </c>
       <c r="F21">
-        <v>18.63662164410391</v>
+        <v>0.7916621185216499</v>
       </c>
       <c r="G21">
-        <v>0.0006249478677053731</v>
+        <v>0.9726321728524141</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3572170156313916</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5485456631204499</v>
+        <v>3.013640921990884</v>
       </c>
       <c r="K21">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>64.58506109290249</v>
       </c>
       <c r="N21">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.770201833253338</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2495581971940055</v>
+        <v>0.2998149290924346</v>
       </c>
       <c r="D22">
-        <v>0.4354202597021839</v>
+        <v>0.471185926515048</v>
       </c>
       <c r="E22">
-        <v>0.03833109811945157</v>
+        <v>1.722881623923456</v>
       </c>
       <c r="F22">
-        <v>18.63662164410391</v>
+        <v>1.062400025695275</v>
       </c>
       <c r="G22">
-        <v>0.0006249478677053731</v>
+        <v>1.198689068878366</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4419778997984309</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5485456631204499</v>
+        <v>3.552999701837962</v>
       </c>
       <c r="K22">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>73.23769604236588</v>
       </c>
       <c r="N22">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3.428008410282928</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2495581971940055</v>
+        <v>0.2855177686684129</v>
       </c>
       <c r="D23">
-        <v>0.4354202597021839</v>
+        <v>0.4245128962670179</v>
       </c>
       <c r="E23">
-        <v>0.03833109811945157</v>
+        <v>1.568969440439389</v>
       </c>
       <c r="F23">
-        <v>18.63662164410391</v>
+        <v>0.9056181534649923</v>
       </c>
       <c r="G23">
-        <v>0.0006249478677053731</v>
+        <v>1.069615215719082</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.3931925148043831</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5485456631204499</v>
+        <v>3.24522876351665</v>
       </c>
       <c r="K23">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>68.37741784190314</v>
       </c>
       <c r="N23">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>3.051622050026907</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2495581971940055</v>
+        <v>0.2360432018229091</v>
       </c>
       <c r="D24">
-        <v>0.4354202597021839</v>
+        <v>0.3034923627667609</v>
       </c>
       <c r="E24">
-        <v>0.03833109811945157</v>
+        <v>1.148803378742201</v>
       </c>
       <c r="F24">
-        <v>18.63662164410391</v>
+        <v>0.5105429507652133</v>
       </c>
       <c r="G24">
-        <v>0.0006249478677053731</v>
+        <v>0.7177336780892887</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2663586983021986</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5485456631204499</v>
+        <v>2.395144076867524</v>
       </c>
       <c r="K24">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>53.8254623212149</v>
       </c>
       <c r="N24">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.038083883598347</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2495581971940055</v>
+        <v>0.1876912339571533</v>
       </c>
       <c r="D25">
-        <v>0.4354202597021839</v>
+        <v>0.2211342612198592</v>
       </c>
       <c r="E25">
-        <v>0.03833109811945157</v>
+        <v>0.8371759479119447</v>
       </c>
       <c r="F25">
-        <v>18.63662164410391</v>
+        <v>0.2712216743741038</v>
       </c>
       <c r="G25">
-        <v>0.0006249478677053731</v>
+        <v>0.4691303726825993</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1859358182126556</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5485456631204499</v>
+        <v>1.753279132218182</v>
       </c>
       <c r="K25">
-        <v>19.11959565296161</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.01778901535336619</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>41.53291003599043</v>
       </c>
       <c r="N25">
-        <v>0.6271994032523764</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.340744111401477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.154301464812761</v>
+        <v>0.04970492700766727</v>
       </c>
       <c r="D2">
-        <v>0.1772636768821201</v>
+        <v>0.1910414548918595</v>
       </c>
       <c r="E2">
-        <v>0.6570576617508479</v>
+        <v>0.2625168408967085</v>
       </c>
       <c r="F2">
-        <v>0.1679315555675309</v>
+        <v>0.6403102258717333</v>
       </c>
       <c r="G2">
-        <v>0.3380488706342106</v>
+        <v>0.3334511935832225</v>
       </c>
       <c r="H2">
-        <v>0.149784057132635</v>
+        <v>0.4946654355909743</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.376607353932229</v>
+        <v>0.4453888725311117</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>33.67770879980134</v>
+        <v>10.85855465781913</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9858007488466285</v>
+        <v>1.589495952055742</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.132520097219313</v>
+        <v>0.0440951706950159</v>
       </c>
       <c r="D3">
-        <v>0.1530732417528782</v>
+        <v>0.1902076448927517</v>
       </c>
       <c r="E3">
-        <v>0.5511044046736373</v>
+        <v>0.2439416287165628</v>
       </c>
       <c r="F3">
-        <v>0.1244771865570833</v>
+        <v>0.671216691506082</v>
       </c>
       <c r="G3">
-        <v>0.2682581071530592</v>
+        <v>0.3420505621732701</v>
       </c>
       <c r="H3">
-        <v>0.134027268630625</v>
+        <v>0.5074969017347186</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.152597564380443</v>
+        <v>0.401270692052293</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>28.7402420293534</v>
+        <v>9.524621878947414</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8039355213506951</v>
+        <v>1.634078423046745</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1194463011574953</v>
+        <v>0.04066862791573556</v>
       </c>
       <c r="D4">
-        <v>0.1400439570119829</v>
+        <v>0.1898913335161438</v>
       </c>
       <c r="E4">
-        <v>0.4912544028385994</v>
+        <v>0.2327722267321448</v>
       </c>
       <c r="F4">
-        <v>0.107152459967093</v>
+        <v>0.6915747250045996</v>
       </c>
       <c r="G4">
-        <v>0.2321183259846933</v>
+        <v>0.3481778328296841</v>
       </c>
       <c r="H4">
-        <v>0.1275277966595283</v>
+        <v>0.5160105957491083</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.025110697354336</v>
+        <v>0.3744832907197804</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.83030563669081</v>
+        <v>8.702353442672461</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7131424818845318</v>
+        <v>1.664563336063097</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1141801327163989</v>
+        <v>0.03927665258281365</v>
       </c>
       <c r="D5">
-        <v>0.1350962788274046</v>
+        <v>0.1898110255528707</v>
       </c>
       <c r="E5">
-        <v>0.4678801104889061</v>
+        <v>0.2282781085516419</v>
       </c>
       <c r="F5">
-        <v>0.1020296906110154</v>
+        <v>0.7002122721071267</v>
       </c>
       <c r="G5">
-        <v>0.2187777877042265</v>
+        <v>0.3508834230483089</v>
       </c>
       <c r="H5">
-        <v>0.1255494859399278</v>
+        <v>0.5196378245934028</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.9751112848437629</v>
+        <v>0.3636394778143881</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>24.66762928881008</v>
+        <v>8.366434835913765</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6804849828120183</v>
+        <v>1.677755304737744</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1133090428275807</v>
+        <v>0.03904577642511242</v>
       </c>
       <c r="D6">
-        <v>0.1342942180657758</v>
+        <v>0.1898006082967783</v>
       </c>
       <c r="E6">
-        <v>0.4640529375741878</v>
+        <v>0.2275352865772646</v>
       </c>
       <c r="F6">
-        <v>0.1012856639152204</v>
+        <v>0.7016669843573027</v>
       </c>
       <c r="G6">
-        <v>0.2166387800125236</v>
+        <v>0.3513451608975231</v>
       </c>
       <c r="H6">
-        <v>0.1252582407915668</v>
+        <v>0.5202496009521269</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.9669127247042013</v>
+        <v>0.3618431386420298</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>24.47578205057397</v>
+        <v>8.31060455802907</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6753015984696589</v>
+        <v>1.679991889934726</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1193750473571953</v>
+        <v>0.04064983772161668</v>
       </c>
       <c r="D7">
-        <v>0.1399758751955176</v>
+        <v>0.1898900544818076</v>
       </c>
       <c r="E7">
-        <v>0.4909353928742917</v>
+        <v>0.2327113869375381</v>
       </c>
       <c r="F7">
-        <v>0.1070760096211494</v>
+        <v>0.6916898390391566</v>
       </c>
       <c r="G7">
-        <v>0.2319331460816301</v>
+        <v>0.3482134821743514</v>
       </c>
       <c r="H7">
-        <v>0.1274985517902394</v>
+        <v>0.5160588772500176</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.024429137212621</v>
+        <v>0.374336759081018</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.81454017282169</v>
+        <v>8.697826548810383</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7126855285141431</v>
+        <v>1.664738150777708</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1467197185374118</v>
+        <v>0.04776689596079109</v>
       </c>
       <c r="D8">
-        <v>0.1684769857266417</v>
+        <v>0.1907129715356604</v>
       </c>
       <c r="E8">
-        <v>0.6192406496811458</v>
+        <v>0.2560620236514666</v>
       </c>
       <c r="F8">
-        <v>0.1507228870996826</v>
+        <v>0.6506765388418145</v>
       </c>
       <c r="G8">
-        <v>0.3123872870846185</v>
+        <v>0.3362377791251987</v>
       </c>
       <c r="H8">
-        <v>0.1436051020782259</v>
+        <v>0.498956774987434</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.296882387582059</v>
+        <v>0.4301121756318764</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>31.94487060371569</v>
+        <v>10.39926736874446</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9181450183012032</v>
+        <v>1.604214319534449</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.203542283322534</v>
+        <v>0.06187173935275325</v>
       </c>
       <c r="D9">
-        <v>0.2453289830122571</v>
+        <v>0.193908903109886</v>
       </c>
       <c r="E9">
-        <v>0.9316923165991682</v>
+        <v>0.3038145499261447</v>
       </c>
       <c r="F9">
-        <v>0.3369922847261293</v>
+        <v>0.581473521005023</v>
       </c>
       <c r="G9">
-        <v>0.5423383015990737</v>
+        <v>0.3196730856583656</v>
       </c>
       <c r="H9">
-        <v>0.2084071152220304</v>
+        <v>0.4705430926911305</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.94915495475621</v>
+        <v>0.5420557495075684</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>45.42008985272565</v>
+        <v>13.71173061222999</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.543625486273982</v>
+        <v>1.510807200970476</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2489177504103282</v>
+        <v>0.07233530378638875</v>
       </c>
       <c r="D10">
-        <v>0.3304598099706624</v>
+        <v>0.1972664231525272</v>
       </c>
       <c r="E10">
-        <v>1.245606657805652</v>
+        <v>0.3402336975439084</v>
       </c>
       <c r="F10">
-        <v>0.595887655819304</v>
+        <v>0.5378369645073207</v>
       </c>
       <c r="G10">
-        <v>0.7980156500742766</v>
+        <v>0.3119957722768021</v>
       </c>
       <c r="H10">
-        <v>0.294290304646907</v>
+        <v>0.4529068009134249</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2.592409665372486</v>
+        <v>0.6261400426023158</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>57.36315646149524</v>
+        <v>16.13346934510241</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.267273309276987</v>
+        <v>1.45841724915573</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2710516460715269</v>
+        <v>0.07711970544556834</v>
       </c>
       <c r="D11">
-        <v>0.383695001044984</v>
+        <v>0.1990237830018344</v>
       </c>
       <c r="E11">
-        <v>1.431049289222969</v>
+        <v>0.357125257179689</v>
       </c>
       <c r="F11">
-        <v>0.7696217133764023</v>
+        <v>0.5196306720905071</v>
       </c>
       <c r="G11">
-        <v>0.953520284061625</v>
+        <v>0.3095390793906176</v>
       </c>
       <c r="H11">
-        <v>0.3502059338153316</v>
+        <v>0.4456123025196774</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2.967876175140475</v>
+        <v>0.6648577257375621</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>63.82119344940111</v>
+        <v>17.23330324063608</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.714903799307365</v>
+        <v>1.438290422727675</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2797692016910531</v>
+        <v>0.07893513201051405</v>
       </c>
       <c r="D12">
-        <v>0.4076190105041348</v>
+        <v>0.1997232696770084</v>
       </c>
       <c r="E12">
-        <v>1.51229092316035</v>
+        <v>0.363571208628727</v>
       </c>
       <c r="F12">
-        <v>0.8491411631033117</v>
+        <v>0.5129796881554398</v>
       </c>
       <c r="G12">
-        <v>1.021917681379634</v>
+        <v>0.3087628157352071</v>
       </c>
       <c r="H12">
-        <v>0.3754193696703538</v>
+        <v>0.4429569477018163</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3.131435746765106</v>
+        <v>0.6795920460965021</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>66.52904352557795</v>
+        <v>17.64957992839527</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.913052967686269</v>
+        <v>1.431217064765548</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2778735620109103</v>
+        <v>0.07854398127662421</v>
       </c>
       <c r="D13">
-        <v>0.4022509065723625</v>
+        <v>0.199571094414992</v>
       </c>
       <c r="E13">
-        <v>1.494164288245344</v>
+        <v>0.3621807093968954</v>
       </c>
       <c r="F13">
-        <v>0.8312453261370649</v>
+        <v>0.5144011621493334</v>
       </c>
       <c r="G13">
-        <v>1.00665618887956</v>
+        <v>0.3089230651745254</v>
       </c>
       <c r="H13">
-        <v>0.3697646543746771</v>
+        <v>0.4435240357576191</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.094989076315613</v>
+        <v>0.6764154170933239</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>65.93093013242083</v>
+        <v>17.55993552377959</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.868781190288274</v>
+        <v>1.432715808146298</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2717610129881507</v>
+        <v>0.07726898705227825</v>
       </c>
       <c r="D14">
-        <v>0.3855714543403366</v>
+        <v>0.199080642947763</v>
       </c>
       <c r="E14">
-        <v>1.43746487910299</v>
+        <v>0.3576545607419916</v>
       </c>
       <c r="F14">
-        <v>0.7758345494803223</v>
+        <v>0.5190785745678497</v>
       </c>
       <c r="G14">
-        <v>0.9589200864702008</v>
+        <v>0.3094720991386311</v>
       </c>
       <c r="H14">
-        <v>0.3521840351138081</v>
+        <v>0.4453916895620011</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2.980812180619495</v>
+        <v>0.6660684353540205</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>64.03760554207713</v>
+        <v>17.26755437063053</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.730521826503775</v>
+        <v>1.437697416790343</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2680660722756016</v>
+        <v>0.07648849999155516</v>
       </c>
       <c r="D15">
-        <v>0.3759251138155548</v>
+        <v>0.1987846855571433</v>
       </c>
       <c r="E15">
-        <v>1.404401923341226</v>
+        <v>0.3548886961670661</v>
       </c>
       <c r="F15">
-        <v>0.7439475203485699</v>
+        <v>0.5219755228767369</v>
       </c>
       <c r="G15">
-        <v>0.9310991313135304</v>
+        <v>0.3098286107656776</v>
       </c>
       <c r="H15">
-        <v>0.3420164635661251</v>
+        <v>0.4465496700508851</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2.914108873824006</v>
+        <v>0.6597402595491815</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>62.91747949718257</v>
+        <v>17.08843734296795</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.65010335507003</v>
+        <v>1.440820653459184</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2475095608405695</v>
+        <v>0.07202313774773472</v>
       </c>
       <c r="D16">
-        <v>0.3273819987345803</v>
+        <v>0.1971562827127968</v>
       </c>
       <c r="E16">
-        <v>1.234664511280371</v>
+        <v>0.3391365595189058</v>
       </c>
       <c r="F16">
-        <v>0.5860353009687032</v>
+        <v>0.5390604613847785</v>
       </c>
       <c r="G16">
-        <v>0.7888988135727999</v>
+        <v>0.3121775979767705</v>
       </c>
       <c r="H16">
-        <v>0.2910825052641002</v>
+        <v>0.4533983549988108</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2.570157272267522</v>
+        <v>0.6236196224449202</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>56.96927081181752</v>
+        <v>16.06156051752913</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.241173373244777</v>
+        <v>1.459808458415608</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2353416232996324</v>
+        <v>0.06929016163610413</v>
       </c>
       <c r="D17">
-        <v>0.3020946944358514</v>
+        <v>0.1962168694057027</v>
       </c>
       <c r="E17">
-        <v>1.143726556506152</v>
+        <v>0.3295581641183958</v>
       </c>
       <c r="F17">
-        <v>0.5061863059674607</v>
+        <v>0.5499675073503525</v>
       </c>
       <c r="G17">
-        <v>0.7135498266333684</v>
+        <v>0.3138874989245579</v>
       </c>
       <c r="H17">
-        <v>0.2649237736731607</v>
+        <v>0.4577878851596893</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2.384772947042876</v>
+        <v>0.6015843195198158</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>53.63655153324771</v>
+        <v>15.43117500997715</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.026182028193318</v>
+        <v>1.472416805215147</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2284734235135772</v>
+        <v>0.06772051982031257</v>
       </c>
       <c r="D18">
-        <v>0.2887734625441709</v>
+        <v>0.1956981334085413</v>
       </c>
       <c r="E18">
-        <v>1.095021446602573</v>
+        <v>0.3240792676763533</v>
       </c>
       <c r="F18">
-        <v>0.4650487010460083</v>
+        <v>0.5563952895404185</v>
       </c>
       <c r="G18">
-        <v>0.673575260660769</v>
+        <v>0.3149681685354437</v>
       </c>
       <c r="H18">
-        <v>0.2513281265072465</v>
+        <v>0.4603810490670668</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2.285141874491785</v>
+        <v>0.5889538256062394</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>51.8064422492277</v>
+        <v>15.06841823235516</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.912698909881101</v>
+        <v>1.4800166476698</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2261680094716922</v>
+        <v>0.06718945530398912</v>
       </c>
       <c r="D19">
-        <v>0.2844436167138724</v>
+        <v>0.1955261787459932</v>
       </c>
       <c r="E19">
-        <v>1.079062350030526</v>
+        <v>0.3222293352410759</v>
       </c>
       <c r="F19">
-        <v>0.4518392808828651</v>
+        <v>0.5585979255983737</v>
       </c>
       <c r="G19">
-        <v>0.6605471727617669</v>
+        <v>0.3153506018991834</v>
       </c>
       <c r="H19">
-        <v>0.246944141871893</v>
+        <v>0.4612707356102703</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2.25244210241263</v>
+        <v>0.5846846871148159</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>51.19964432709577</v>
+        <v>14.94556322510334</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.875809422847084</v>
+        <v>1.48264910458019</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2366228201567964</v>
+        <v>0.06958085308663442</v>
       </c>
       <c r="D20">
-        <v>0.304652392275699</v>
+        <v>0.1963146304990602</v>
       </c>
       <c r="E20">
-        <v>1.153012342957311</v>
+        <v>0.3305746402137117</v>
       </c>
       <c r="F20">
-        <v>0.5141643465809764</v>
+        <v>0.5487904107168973</v>
       </c>
       <c r="G20">
-        <v>0.7212045871082182</v>
+        <v>0.3136953827463458</v>
       </c>
       <c r="H20">
-        <v>0.2675507603159843</v>
+        <v>0.4573135150753842</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2.403740336115021</v>
+        <v>0.603925460468389</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>53.98181853537653</v>
+        <v>15.49829841972877</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.047960992840643</v>
+        <v>1.471038513129713</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2735457702929125</v>
+        <v>0.07764338266547099</v>
       </c>
       <c r="D21">
-        <v>0.3903457054746156</v>
+        <v>0.1992237695660179</v>
       </c>
       <c r="E21">
-        <v>1.45375390095063</v>
+        <v>0.3589826336613413</v>
       </c>
       <c r="F21">
-        <v>0.7916621185216499</v>
+        <v>0.5176980450626019</v>
       </c>
       <c r="G21">
-        <v>0.9726321728524141</v>
+        <v>0.3093066130571316</v>
       </c>
       <c r="H21">
-        <v>0.3572170156313916</v>
+        <v>0.444840195205515</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3.013640921990884</v>
+        <v>0.6691055733186033</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>64.58506109290249</v>
+        <v>17.35343893119938</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.770201833253338</v>
+        <v>1.436219194659685</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2998149290924346</v>
+        <v>0.08293422479682988</v>
       </c>
       <c r="D22">
-        <v>0.471185926515048</v>
+        <v>0.2013237899492424</v>
       </c>
       <c r="E22">
-        <v>1.722881623923456</v>
+        <v>0.3778387928358171</v>
       </c>
       <c r="F22">
-        <v>1.062400025695275</v>
+        <v>0.4987990956293089</v>
       </c>
       <c r="G22">
-        <v>1.198689068878366</v>
+        <v>0.3073385566041651</v>
       </c>
       <c r="H22">
-        <v>0.4419778997984309</v>
+        <v>0.4373123724451915</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3.552999701837962</v>
+        <v>0.7121315887567903</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>73.23769604236588</v>
+        <v>18.56470690915631</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.428008410282928</v>
+        <v>1.416665638479998</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2855177686684129</v>
+        <v>0.08010838049614222</v>
       </c>
       <c r="D23">
-        <v>0.4245128962670179</v>
+        <v>0.2001844602789191</v>
       </c>
       <c r="E23">
-        <v>1.568969440439389</v>
+        <v>0.3677473889161718</v>
       </c>
       <c r="F23">
-        <v>0.9056181534649923</v>
+        <v>0.50875341193629</v>
       </c>
       <c r="G23">
-        <v>1.069615215719082</v>
+        <v>0.3083048619992184</v>
       </c>
       <c r="H23">
-        <v>0.3931925148043831</v>
+        <v>0.4412722673588974</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3.24522876351665</v>
+        <v>0.6891267784953357</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>68.37741784190314</v>
+        <v>17.91831767668367</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.051622050026907</v>
+        <v>1.426803518025707</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2360432018229091</v>
+        <v>0.06944942656460285</v>
       </c>
       <c r="D24">
-        <v>0.3034923627667609</v>
+        <v>0.1962703662934047</v>
       </c>
       <c r="E24">
-        <v>1.148803378742201</v>
+        <v>0.330115004835605</v>
       </c>
       <c r="F24">
-        <v>0.5105429507652133</v>
+        <v>0.5493220870575826</v>
       </c>
       <c r="G24">
-        <v>0.7177336780892887</v>
+        <v>0.313781934775335</v>
       </c>
       <c r="H24">
-        <v>0.2663586983021986</v>
+        <v>0.4575277612771771</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2.395144076867524</v>
+        <v>0.6028669130271851</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>53.8254623212149</v>
+        <v>15.46795298860866</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.038083883598347</v>
+        <v>1.471660546431309</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1876912339571533</v>
+        <v>0.05803908011424141</v>
       </c>
       <c r="D25">
-        <v>0.2211342612198592</v>
+        <v>0.1928704803881658</v>
       </c>
       <c r="E25">
-        <v>0.8371759479119447</v>
+        <v>0.290672409937514</v>
       </c>
       <c r="F25">
-        <v>0.2712216743741038</v>
+        <v>0.5989558930814383</v>
       </c>
       <c r="G25">
-        <v>0.4691303726825993</v>
+        <v>0.3233853968855414</v>
       </c>
       <c r="H25">
-        <v>0.1859358182126556</v>
+        <v>0.4776693665833989</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.753279132218182</v>
+        <v>0.511470065248119</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>41.53291003599043</v>
+        <v>12.81793408937523</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.340744111401477</v>
+        <v>1.533285433783391</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04970492700766727</v>
+        <v>0.1543014648130736</v>
       </c>
       <c r="D2">
-        <v>0.1910414548918595</v>
+        <v>0.1772636768820917</v>
       </c>
       <c r="E2">
-        <v>0.2625168408967085</v>
+        <v>0.6570576617508337</v>
       </c>
       <c r="F2">
-        <v>0.6403102258717333</v>
+        <v>0.1679315555675274</v>
       </c>
       <c r="G2">
-        <v>0.3334511935832225</v>
+        <v>0.3380488706342248</v>
       </c>
       <c r="H2">
-        <v>0.4946654355909743</v>
+        <v>0.149784057132635</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4453888725311117</v>
+        <v>1.376607353932144</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.85855465781913</v>
+        <v>33.67770879980134</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.589495952055742</v>
+        <v>0.9858007488467138</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0440951706950159</v>
+        <v>0.1325200972192278</v>
       </c>
       <c r="D3">
-        <v>0.1902076448927517</v>
+        <v>0.1530732417528924</v>
       </c>
       <c r="E3">
-        <v>0.2439416287165628</v>
+        <v>0.5511044046736231</v>
       </c>
       <c r="F3">
-        <v>0.671216691506082</v>
+        <v>0.1244771865570868</v>
       </c>
       <c r="G3">
-        <v>0.3420505621732701</v>
+        <v>0.2682581071530166</v>
       </c>
       <c r="H3">
-        <v>0.5074969017347186</v>
+        <v>0.1340272686305042</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.401270692052293</v>
+        <v>1.152597564380414</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.524621878947414</v>
+        <v>28.74024202935357</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.634078423046745</v>
+        <v>0.8039355213507093</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04066862791573556</v>
+        <v>0.1194463011576516</v>
       </c>
       <c r="D4">
-        <v>0.1898913335161438</v>
+        <v>0.1400439570120113</v>
       </c>
       <c r="E4">
-        <v>0.2327722267321448</v>
+        <v>0.4912544028385923</v>
       </c>
       <c r="F4">
-        <v>0.6915747250045996</v>
+        <v>0.1071524599670965</v>
       </c>
       <c r="G4">
-        <v>0.3481778328296841</v>
+        <v>0.2321183259846933</v>
       </c>
       <c r="H4">
-        <v>0.5160105957491083</v>
+        <v>0.1275277966596491</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3744832907197804</v>
+        <v>1.025110697354478</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.702353442672461</v>
+        <v>25.8303056366907</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.664563336063097</v>
+        <v>0.713142481884546</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03927665258281365</v>
+        <v>0.1141801327161716</v>
       </c>
       <c r="D5">
-        <v>0.1898110255528707</v>
+        <v>0.1350962788274046</v>
       </c>
       <c r="E5">
-        <v>0.2282781085516419</v>
+        <v>0.4678801104889274</v>
       </c>
       <c r="F5">
-        <v>0.7002122721071267</v>
+        <v>0.1020296906109799</v>
       </c>
       <c r="G5">
-        <v>0.3508834230483089</v>
+        <v>0.2187777877042834</v>
       </c>
       <c r="H5">
-        <v>0.5196378245934028</v>
+        <v>0.1255494859399349</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3636394778143881</v>
+        <v>0.9751112848438765</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.366434835913765</v>
+        <v>24.66762928881019</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.677755304737744</v>
+        <v>0.6804849828119615</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03904577642511242</v>
+        <v>0.113309042827737</v>
       </c>
       <c r="D6">
-        <v>0.1898006082967783</v>
+        <v>0.1342942180657758</v>
       </c>
       <c r="E6">
-        <v>0.2275352865772646</v>
+        <v>0.4640529375741664</v>
       </c>
       <c r="F6">
-        <v>0.7016669843573027</v>
+        <v>0.1012856639151956</v>
       </c>
       <c r="G6">
-        <v>0.3513451608975231</v>
+        <v>0.2166387800124667</v>
       </c>
       <c r="H6">
-        <v>0.5202496009521269</v>
+        <v>0.1252582407915668</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3618431386420298</v>
+        <v>0.9669127247041729</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.31060455802907</v>
+        <v>24.47578205057397</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.679991889934726</v>
+        <v>0.6753015984695878</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04064983772161668</v>
+        <v>0.1193750473569821</v>
       </c>
       <c r="D7">
-        <v>0.1898900544818076</v>
+        <v>0.1399758751956455</v>
       </c>
       <c r="E7">
-        <v>0.2327113869375381</v>
+        <v>0.4909353928742846</v>
       </c>
       <c r="F7">
-        <v>0.6916898390391566</v>
+        <v>0.1070760096211743</v>
       </c>
       <c r="G7">
-        <v>0.3482134821743514</v>
+        <v>0.231933146081623</v>
       </c>
       <c r="H7">
-        <v>0.5160588772500176</v>
+        <v>0.1274985517902323</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.374336759081018</v>
+        <v>1.024429137212564</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.697826548810383</v>
+        <v>25.81454017282169</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.664738150777708</v>
+        <v>0.7126855285141573</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04776689596079109</v>
+        <v>0.1467197185377103</v>
       </c>
       <c r="D8">
-        <v>0.1907129715356604</v>
+        <v>0.1684769857263575</v>
       </c>
       <c r="E8">
-        <v>0.2560620236514666</v>
+        <v>0.6192406496811387</v>
       </c>
       <c r="F8">
-        <v>0.6506765388418145</v>
+        <v>0.1507228870996897</v>
       </c>
       <c r="G8">
-        <v>0.3362377791251987</v>
+        <v>0.3123872870845616</v>
       </c>
       <c r="H8">
-        <v>0.498956774987434</v>
+        <v>0.1436051020782259</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4301121756318764</v>
+        <v>1.296882387582116</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.39926736874446</v>
+        <v>31.94487060371586</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.604214319534449</v>
+        <v>0.9181450183013737</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06187173935275325</v>
+        <v>0.2035422833228466</v>
       </c>
       <c r="D9">
-        <v>0.193908903109886</v>
+        <v>0.2453289830121008</v>
       </c>
       <c r="E9">
-        <v>0.3038145499261447</v>
+        <v>0.9316923165991682</v>
       </c>
       <c r="F9">
-        <v>0.581473521005023</v>
+        <v>0.3369922847261364</v>
       </c>
       <c r="G9">
-        <v>0.3196730856583656</v>
+        <v>0.5423383015991874</v>
       </c>
       <c r="H9">
-        <v>0.4705430926911305</v>
+        <v>0.2084071152220304</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5420557495075684</v>
+        <v>1.949154954756295</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.71173061222999</v>
+        <v>45.42008985272554</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.510807200970476</v>
+        <v>1.543625486273925</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07233530378638875</v>
+        <v>0.2489177504102145</v>
       </c>
       <c r="D10">
-        <v>0.1972664231525272</v>
+        <v>0.3304598099705629</v>
       </c>
       <c r="E10">
-        <v>0.3402336975439084</v>
+        <v>1.245606657805681</v>
       </c>
       <c r="F10">
-        <v>0.5378369645073207</v>
+        <v>0.5958876558193111</v>
       </c>
       <c r="G10">
-        <v>0.3119957722768021</v>
+        <v>0.7980156500742339</v>
       </c>
       <c r="H10">
-        <v>0.4529068009134249</v>
+        <v>0.2942903046469212</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6261400426023158</v>
+        <v>2.592409665372458</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.13346934510241</v>
+        <v>57.36315646149524</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.45841724915573</v>
+        <v>2.267273309277016</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07711970544556834</v>
+        <v>0.2710516460716264</v>
       </c>
       <c r="D11">
-        <v>0.1990237830018344</v>
+        <v>0.3836950010448277</v>
       </c>
       <c r="E11">
-        <v>0.357125257179689</v>
+        <v>1.431049289222997</v>
       </c>
       <c r="F11">
-        <v>0.5196306720905071</v>
+        <v>0.7696217133764094</v>
       </c>
       <c r="G11">
-        <v>0.3095390793906176</v>
+        <v>0.9535202840616677</v>
       </c>
       <c r="H11">
-        <v>0.4456123025196774</v>
+        <v>0.3502059338153316</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6648577257375621</v>
+        <v>2.967876175140532</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.23330324063608</v>
+        <v>63.82119344940116</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.438290422727675</v>
+        <v>2.714903799307393</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07893513201051405</v>
+        <v>0.279769201691181</v>
       </c>
       <c r="D12">
-        <v>0.1997232696770084</v>
+        <v>0.4076190105041348</v>
       </c>
       <c r="E12">
-        <v>0.363571208628727</v>
+        <v>1.512290923160336</v>
       </c>
       <c r="F12">
-        <v>0.5129796881554398</v>
+        <v>0.8491411631033117</v>
       </c>
       <c r="G12">
-        <v>0.3087628157352071</v>
+        <v>1.021917681379549</v>
       </c>
       <c r="H12">
-        <v>0.4429569477018163</v>
+        <v>0.3754193696704817</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6795920460965021</v>
+        <v>3.131435746765078</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.64957992839527</v>
+        <v>66.5290435255784</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.431217064765548</v>
+        <v>2.913052967686269</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07854398127662421</v>
+        <v>0.2778735620109387</v>
       </c>
       <c r="D13">
-        <v>0.199571094414992</v>
+        <v>0.4022509065723767</v>
       </c>
       <c r="E13">
-        <v>0.3621807093968954</v>
+        <v>1.494164288245358</v>
       </c>
       <c r="F13">
-        <v>0.5144011621493334</v>
+        <v>0.8312453261370578</v>
       </c>
       <c r="G13">
-        <v>0.3089230651745254</v>
+        <v>1.00665618887956</v>
       </c>
       <c r="H13">
-        <v>0.4435240357576191</v>
+        <v>0.3697646543746771</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6764154170933239</v>
+        <v>3.094989076315585</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.55993552377959</v>
+        <v>65.93093013242071</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.432715808146298</v>
+        <v>2.868781190288274</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07726898705227825</v>
+        <v>0.2717610129881507</v>
       </c>
       <c r="D14">
-        <v>0.199080642947763</v>
+        <v>0.3855714543402229</v>
       </c>
       <c r="E14">
-        <v>0.3576545607419916</v>
+        <v>1.437464879103018</v>
       </c>
       <c r="F14">
-        <v>0.5190785745678497</v>
+        <v>0.7758345494803365</v>
       </c>
       <c r="G14">
-        <v>0.3094720991386311</v>
+        <v>0.9589200864701724</v>
       </c>
       <c r="H14">
-        <v>0.4453916895620011</v>
+        <v>0.3521840351136802</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6660684353540205</v>
+        <v>2.980812180619438</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.26755437063053</v>
+        <v>64.03760554207668</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.437697416790343</v>
+        <v>2.730521826503718</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07648849999155516</v>
+        <v>0.2680660722756016</v>
       </c>
       <c r="D15">
-        <v>0.1987846855571433</v>
+        <v>0.3759251138153701</v>
       </c>
       <c r="E15">
-        <v>0.3548886961670661</v>
+        <v>1.404401923341211</v>
       </c>
       <c r="F15">
-        <v>0.5219755228767369</v>
+        <v>0.7439475203485628</v>
       </c>
       <c r="G15">
-        <v>0.3098286107656776</v>
+        <v>0.9310991313135304</v>
       </c>
       <c r="H15">
-        <v>0.4465496700508851</v>
+        <v>0.3420164635661109</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6597402595491815</v>
+        <v>2.914108873823977</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.08843734296795</v>
+        <v>62.9174794971828</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.440820653459184</v>
+        <v>2.650103355070001</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07202313774773472</v>
+        <v>0.2475095608402711</v>
       </c>
       <c r="D16">
-        <v>0.1971562827127968</v>
+        <v>0.3273819987344666</v>
       </c>
       <c r="E16">
-        <v>0.3391365595189058</v>
+        <v>1.234664511280371</v>
       </c>
       <c r="F16">
-        <v>0.5390604613847785</v>
+        <v>0.5860353009686889</v>
       </c>
       <c r="G16">
-        <v>0.3121775979767705</v>
+        <v>0.7888988135727573</v>
       </c>
       <c r="H16">
-        <v>0.4533983549988108</v>
+        <v>0.2910825052641997</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6236196224449202</v>
+        <v>2.570157272267721</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.06156051752913</v>
+        <v>56.96927081181781</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.459808458415608</v>
+        <v>2.241173373244777</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06929016163610413</v>
+        <v>0.2353416232996324</v>
       </c>
       <c r="D17">
-        <v>0.1962168694057027</v>
+        <v>0.3020946944358371</v>
       </c>
       <c r="E17">
-        <v>0.3295581641183958</v>
+        <v>1.143726556506138</v>
       </c>
       <c r="F17">
-        <v>0.5499675073503525</v>
+        <v>0.5061863059674607</v>
       </c>
       <c r="G17">
-        <v>0.3138874989245579</v>
+        <v>0.7135498266333968</v>
       </c>
       <c r="H17">
-        <v>0.4577878851596893</v>
+        <v>0.2649237736731607</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6015843195198158</v>
+        <v>2.384772947042791</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.43117500997715</v>
+        <v>53.6365515332476</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.472416805215147</v>
+        <v>2.026182028193318</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06772051982031257</v>
+        <v>0.2284734235136767</v>
       </c>
       <c r="D18">
-        <v>0.1956981334085413</v>
+        <v>0.2887734625443699</v>
       </c>
       <c r="E18">
-        <v>0.3240792676763533</v>
+        <v>1.095021446602601</v>
       </c>
       <c r="F18">
-        <v>0.5563952895404185</v>
+        <v>0.4650487010460154</v>
       </c>
       <c r="G18">
-        <v>0.3149681685354437</v>
+        <v>0.6735752606607406</v>
       </c>
       <c r="H18">
-        <v>0.4603810490670668</v>
+        <v>0.2513281265073743</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5889538256062394</v>
+        <v>2.285141874491728</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.06841823235516</v>
+        <v>51.8064422492277</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.4800166476698</v>
+        <v>1.912698909881158</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06718945530398912</v>
+        <v>0.226168009471678</v>
       </c>
       <c r="D19">
-        <v>0.1955261787459932</v>
+        <v>0.2844436167142277</v>
       </c>
       <c r="E19">
-        <v>0.3222293352410759</v>
+        <v>1.07906235003054</v>
       </c>
       <c r="F19">
-        <v>0.5585979255983737</v>
+        <v>0.4518392808828722</v>
       </c>
       <c r="G19">
-        <v>0.3153506018991834</v>
+        <v>0.6605471727618095</v>
       </c>
       <c r="H19">
-        <v>0.4612707356102703</v>
+        <v>0.246944141871893</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5846846871148159</v>
+        <v>2.25244210241263</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.94556322510334</v>
+        <v>51.19964432709588</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.48264910458019</v>
+        <v>1.875809422847112</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06958085308663442</v>
+        <v>0.2366228201566685</v>
       </c>
       <c r="D20">
-        <v>0.1963146304990602</v>
+        <v>0.3046523922758411</v>
       </c>
       <c r="E20">
-        <v>0.3305746402137117</v>
+        <v>1.153012342957325</v>
       </c>
       <c r="F20">
-        <v>0.5487904107168973</v>
+        <v>0.5141643465809622</v>
       </c>
       <c r="G20">
-        <v>0.3136953827463458</v>
+        <v>0.7212045871081898</v>
       </c>
       <c r="H20">
-        <v>0.4573135150753842</v>
+        <v>0.2675507603159843</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.603925460468389</v>
+        <v>2.40374033611505</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.49829841972877</v>
+        <v>53.98181853537653</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.471038513129713</v>
+        <v>2.047960992840643</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07764338266547099</v>
+        <v>0.2735457702927988</v>
       </c>
       <c r="D21">
-        <v>0.1992237695660179</v>
+        <v>0.3903457054746156</v>
       </c>
       <c r="E21">
-        <v>0.3589826336613413</v>
+        <v>1.453753900950645</v>
       </c>
       <c r="F21">
-        <v>0.5176980450626019</v>
+        <v>0.7916621185216641</v>
       </c>
       <c r="G21">
-        <v>0.3093066130571316</v>
+        <v>0.9726321728524709</v>
       </c>
       <c r="H21">
-        <v>0.444840195205515</v>
+        <v>0.3572170156314911</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6691055733186033</v>
+        <v>3.013640921990856</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.35343893119938</v>
+        <v>64.58506109290209</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.436219194659685</v>
+        <v>2.770201833253367</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08293422479682988</v>
+        <v>0.2998149290922356</v>
       </c>
       <c r="D22">
-        <v>0.2013237899492424</v>
+        <v>0.471185926514849</v>
       </c>
       <c r="E22">
-        <v>0.3778387928358171</v>
+        <v>1.722881623923485</v>
       </c>
       <c r="F22">
-        <v>0.4987990956293089</v>
+        <v>1.062400025695275</v>
       </c>
       <c r="G22">
-        <v>0.3073385566041651</v>
+        <v>1.198689068878309</v>
       </c>
       <c r="H22">
-        <v>0.4373123724451915</v>
+        <v>0.4419778997984309</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7121315887567903</v>
+        <v>3.552999701837962</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.56470690915631</v>
+        <v>73.23769604236634</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.416665638479998</v>
+        <v>3.428008410282985</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08010838049614222</v>
+        <v>0.2855177686683845</v>
       </c>
       <c r="D23">
-        <v>0.2001844602789191</v>
+        <v>0.4245128962669753</v>
       </c>
       <c r="E23">
-        <v>0.3677473889161718</v>
+        <v>1.568969440439361</v>
       </c>
       <c r="F23">
-        <v>0.50875341193629</v>
+        <v>0.9056181534649355</v>
       </c>
       <c r="G23">
-        <v>0.3083048619992184</v>
+        <v>1.069615215719111</v>
       </c>
       <c r="H23">
-        <v>0.4412722673588974</v>
+        <v>0.3931925148042552</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6891267784953357</v>
+        <v>3.24522876351665</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.91831767668367</v>
+        <v>68.37741784190285</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.426803518025707</v>
+        <v>3.051622050026793</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06944942656460285</v>
+        <v>0.2360432018227812</v>
       </c>
       <c r="D24">
-        <v>0.1962703662934047</v>
+        <v>0.3034923627668604</v>
       </c>
       <c r="E24">
-        <v>0.330115004835605</v>
+        <v>1.148803378742173</v>
       </c>
       <c r="F24">
-        <v>0.5493220870575826</v>
+        <v>0.5105429507652062</v>
       </c>
       <c r="G24">
-        <v>0.313781934775335</v>
+        <v>0.7177336780892745</v>
       </c>
       <c r="H24">
-        <v>0.4575277612771771</v>
+        <v>0.2663586983021986</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6028669130271851</v>
+        <v>2.395144076867609</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.46795298860866</v>
+        <v>53.82546232121501</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.471660546431309</v>
+        <v>2.03808388359829</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05803908011424141</v>
+        <v>0.1876912339569543</v>
       </c>
       <c r="D25">
-        <v>0.1928704803881658</v>
+        <v>0.2211342612197882</v>
       </c>
       <c r="E25">
-        <v>0.290672409937514</v>
+        <v>0.8371759479119447</v>
       </c>
       <c r="F25">
-        <v>0.5989558930814383</v>
+        <v>0.2712216743741109</v>
       </c>
       <c r="G25">
-        <v>0.3233853968855414</v>
+        <v>0.4691303726825424</v>
       </c>
       <c r="H25">
-        <v>0.4776693665833989</v>
+        <v>0.1859358182126556</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.511470065248119</v>
+        <v>1.753279132218239</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.81793408937523</v>
+        <v>41.53291003599043</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.533285433783391</v>
+        <v>1.340744111401506</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1543014648130736</v>
+        <v>0.1258099138669451</v>
       </c>
       <c r="D2">
-        <v>0.1772636768820917</v>
+        <v>0.06979437672019628</v>
       </c>
       <c r="E2">
-        <v>0.6570576617508337</v>
+        <v>0.08226725952017588</v>
       </c>
       <c r="F2">
-        <v>0.1679315555675274</v>
+        <v>1.394788505698685</v>
       </c>
       <c r="G2">
-        <v>0.3380488706342248</v>
+        <v>1.088976316785335</v>
       </c>
       <c r="H2">
-        <v>0.149784057132635</v>
+        <v>0.005741974727030641</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00435267730771427</v>
       </c>
       <c r="J2">
-        <v>1.376607353932144</v>
+        <v>0.731063402871527</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.014136267658088</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.115904469816563</v>
       </c>
       <c r="M2">
-        <v>33.67770879980134</v>
+        <v>3.91065166428092</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1019841063758591</v>
       </c>
       <c r="O2">
-        <v>0.9858007488467138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.9440098170524891</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1325200972192278</v>
+        <v>0.1113256618952931</v>
       </c>
       <c r="D3">
-        <v>0.1530732417528924</v>
+        <v>0.06197964286771196</v>
       </c>
       <c r="E3">
-        <v>0.5511044046736231</v>
+        <v>0.07415170151961448</v>
       </c>
       <c r="F3">
-        <v>0.1244771865570868</v>
+        <v>1.311769037057275</v>
       </c>
       <c r="G3">
-        <v>0.2682581071530166</v>
+        <v>1.020814758199521</v>
       </c>
       <c r="H3">
-        <v>0.1340272686305042</v>
+        <v>0.008636494205926271</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.007032149453697123</v>
       </c>
       <c r="J3">
-        <v>1.152597564380414</v>
+        <v>0.7037464412309618</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.953366147821761</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1053470961071241</v>
       </c>
       <c r="M3">
-        <v>28.74024202935357</v>
+        <v>3.412596004149918</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09308938983421911</v>
       </c>
       <c r="O3">
-        <v>0.8039355213507093</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.9633108129171077</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1194463011576516</v>
+        <v>0.1023160199897859</v>
       </c>
       <c r="D4">
-        <v>0.1400439570120113</v>
+        <v>0.0572001117806451</v>
       </c>
       <c r="E4">
-        <v>0.4912544028385923</v>
+        <v>0.0691525756972986</v>
       </c>
       <c r="F4">
-        <v>0.1071524599670965</v>
+        <v>1.261488561899014</v>
       </c>
       <c r="G4">
-        <v>0.2321183259846933</v>
+        <v>0.97959630508673</v>
       </c>
       <c r="H4">
-        <v>0.1275277966596491</v>
+        <v>0.01078275876309206</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.009132516388372647</v>
       </c>
       <c r="J4">
-        <v>1.025110697354478</v>
+        <v>0.6873751286288012</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9163201913153358</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.098812405513236</v>
       </c>
       <c r="M4">
-        <v>25.8303056366907</v>
+        <v>3.106364359200143</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0876742464408693</v>
       </c>
       <c r="O4">
-        <v>0.713142481884546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.9759327419072648</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1141801327161716</v>
+        <v>0.09827490788416071</v>
       </c>
       <c r="D5">
-        <v>0.1350962788274046</v>
+        <v>0.05529654513578208</v>
       </c>
       <c r="E5">
-        <v>0.4678801104889274</v>
+        <v>0.06707341318862703</v>
       </c>
       <c r="F5">
-        <v>0.1020296906109799</v>
+        <v>1.240115295721594</v>
       </c>
       <c r="G5">
-        <v>0.2187777877042834</v>
+        <v>0.9619338036095968</v>
       </c>
       <c r="H5">
-        <v>0.1255494859399349</v>
+        <v>0.01175432485338809</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0101864475920741</v>
       </c>
       <c r="J5">
-        <v>0.9751112848438765</v>
+        <v>0.6802893120600828</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.900250786617363</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.09603236120321768</v>
       </c>
       <c r="M5">
-        <v>24.66762928881019</v>
+        <v>2.979794079003852</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08558179262942645</v>
       </c>
       <c r="O5">
-        <v>0.6804849828119615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.9815151382083727</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.113309042827737</v>
+        <v>0.09718811416188089</v>
       </c>
       <c r="D6">
-        <v>0.1342942180657758</v>
+        <v>0.05502972759807534</v>
       </c>
       <c r="E6">
-        <v>0.4640529375741664</v>
+        <v>0.06668245686060814</v>
       </c>
       <c r="F6">
-        <v>0.1012856639151956</v>
+        <v>1.235299755080447</v>
       </c>
       <c r="G6">
-        <v>0.2166387800124667</v>
+        <v>0.9577739351639707</v>
       </c>
       <c r="H6">
-        <v>0.1252582407915668</v>
+        <v>0.0119308610201327</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01048340629281608</v>
       </c>
       <c r="J6">
-        <v>0.9669127247041729</v>
+        <v>0.6784962046499743</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8963249166572211</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.09544420484471061</v>
       </c>
       <c r="M6">
-        <v>24.47578205057397</v>
+        <v>2.95675195196344</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.08536243210063788</v>
       </c>
       <c r="O6">
-        <v>0.6753015984695878</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.9827625601103165</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1193750473569821</v>
+        <v>0.1011254782122535</v>
       </c>
       <c r="D7">
-        <v>0.1399758751956455</v>
+        <v>0.05730856563315001</v>
       </c>
       <c r="E7">
-        <v>0.4909353928742846</v>
+        <v>0.06900026507116408</v>
       </c>
       <c r="F7">
-        <v>0.1070760096211743</v>
+        <v>1.257710813274485</v>
       </c>
       <c r="G7">
-        <v>0.231933146081623</v>
+        <v>0.9759781880109557</v>
       </c>
       <c r="H7">
-        <v>0.1274985517902323</v>
+        <v>0.01082090316378308</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.009442404229510259</v>
       </c>
       <c r="J7">
-        <v>1.024429137212564</v>
+        <v>0.6855792055501411</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9126534250933176</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0984309377166781</v>
       </c>
       <c r="M7">
-        <v>25.81454017282169</v>
+        <v>3.099127364710796</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.08799482556697313</v>
       </c>
       <c r="O7">
-        <v>0.7126855285141573</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.9768678118080985</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1467197185377103</v>
+        <v>0.1193170201287472</v>
       </c>
       <c r="D8">
-        <v>0.1684769857263575</v>
+        <v>0.06727416428186217</v>
       </c>
       <c r="E8">
-        <v>0.6192406496811387</v>
+        <v>0.07930601522482661</v>
       </c>
       <c r="F8">
-        <v>0.1507228870996897</v>
+        <v>1.361375351186197</v>
       </c>
       <c r="G8">
-        <v>0.3123872870845616</v>
+        <v>1.060841610181456</v>
       </c>
       <c r="H8">
-        <v>0.1436051020782259</v>
+        <v>0.006686447400362394</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.005523968415651836</v>
       </c>
       <c r="J8">
-        <v>1.296882387582116</v>
+        <v>0.7193036342414274</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9885340785913002</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1118155614432652</v>
       </c>
       <c r="M8">
-        <v>31.94487060371586</v>
+        <v>3.731578554287864</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.09937219202137726</v>
       </c>
       <c r="O8">
-        <v>0.9181450183013737</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.951708930995423</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2035422833228466</v>
+        <v>0.1561985583358165</v>
       </c>
       <c r="D9">
-        <v>0.2453289830121008</v>
+        <v>0.08675357422607988</v>
       </c>
       <c r="E9">
-        <v>0.9316923165991682</v>
+        <v>0.09965204417774842</v>
       </c>
       <c r="F9">
-        <v>0.3369922847261364</v>
+        <v>1.577164230661978</v>
       </c>
       <c r="G9">
-        <v>0.5423383015991874</v>
+        <v>1.239069607682325</v>
       </c>
       <c r="H9">
-        <v>0.2084071152220304</v>
+        <v>0.001665216170585682</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001256124051509211</v>
       </c>
       <c r="J9">
-        <v>1.949154954756295</v>
+        <v>0.791991838040218</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.146099186641635</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1383259724678609</v>
       </c>
       <c r="M9">
-        <v>45.42008985272554</v>
+        <v>4.979765049437731</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1214826152050179</v>
       </c>
       <c r="O9">
-        <v>1.543625486273925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.9071320430240633</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2489177504102145</v>
+        <v>0.1799070475110796</v>
       </c>
       <c r="D10">
-        <v>0.3304598099705629</v>
+        <v>0.09983462588198933</v>
       </c>
       <c r="E10">
-        <v>1.245606657805681</v>
+        <v>0.1112953389032221</v>
       </c>
       <c r="F10">
-        <v>0.5958876558193111</v>
+        <v>1.718878709130422</v>
       </c>
       <c r="G10">
-        <v>0.7980156500742339</v>
+        <v>1.356469701377875</v>
       </c>
       <c r="H10">
-        <v>0.2942903046469212</v>
+        <v>0.0003766035340087015</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0009295680890746283</v>
       </c>
       <c r="J10">
-        <v>2.592409665372458</v>
+        <v>0.8390295775413392</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.247966356106105</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1522114448198479</v>
       </c>
       <c r="M10">
-        <v>57.36315646149524</v>
+        <v>5.866675485146345</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1328810520282317</v>
       </c>
       <c r="O10">
-        <v>2.267273309277016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.8843775597662997</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2710516460716264</v>
+        <v>0.1685240008486915</v>
       </c>
       <c r="D11">
-        <v>0.3836950010448277</v>
+        <v>0.09358466047235936</v>
       </c>
       <c r="E11">
-        <v>1.431049289222997</v>
+        <v>0.09018611279469368</v>
       </c>
       <c r="F11">
-        <v>0.7696217133764094</v>
+        <v>1.607923561381767</v>
       </c>
       <c r="G11">
-        <v>0.9535202840616677</v>
+        <v>1.265213310428237</v>
       </c>
       <c r="H11">
-        <v>0.3502059338153316</v>
+        <v>0.01889296418008612</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001600294004955316</v>
       </c>
       <c r="J11">
-        <v>2.967876175140532</v>
+        <v>0.7885798652086748</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.166366225752029</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1170384205123369</v>
       </c>
       <c r="M11">
-        <v>63.82119344940116</v>
+        <v>6.015876163395944</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09685011366850205</v>
       </c>
       <c r="O11">
-        <v>2.714903799307393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.9269194642503464</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.279769201691181</v>
+        <v>0.1562192200916996</v>
       </c>
       <c r="D12">
-        <v>0.4076190105041348</v>
+        <v>0.08553380538521793</v>
       </c>
       <c r="E12">
-        <v>1.512290923160336</v>
+        <v>0.07273613217588348</v>
       </c>
       <c r="F12">
-        <v>0.8491411631033117</v>
+        <v>1.491804953088746</v>
       </c>
       <c r="G12">
-        <v>1.021917681379549</v>
+        <v>1.170409548112161</v>
       </c>
       <c r="H12">
-        <v>0.3754193696704817</v>
+        <v>0.05760693921081383</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.00161162069548304</v>
       </c>
       <c r="J12">
-        <v>3.131435746765078</v>
+        <v>0.7393554075626412</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.083063133029611</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09149664038509542</v>
       </c>
       <c r="M12">
-        <v>66.5290435255784</v>
+        <v>5.959356623262636</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07023035028572622</v>
       </c>
       <c r="O12">
-        <v>2.913052967686269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.9723243494851346</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2778735620109387</v>
+        <v>0.1407854886723925</v>
       </c>
       <c r="D13">
-        <v>0.4022509065723767</v>
+        <v>0.07590282745129429</v>
       </c>
       <c r="E13">
-        <v>1.494164288245358</v>
+        <v>0.05699637342574349</v>
       </c>
       <c r="F13">
-        <v>0.8312453261370578</v>
+        <v>1.359824904234941</v>
       </c>
       <c r="G13">
-        <v>1.00665618887956</v>
+        <v>1.062250512782086</v>
       </c>
       <c r="H13">
-        <v>0.3697646543746771</v>
+        <v>0.1135017841304489</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001455379271723345</v>
       </c>
       <c r="J13">
-        <v>3.094989076315585</v>
+        <v>0.6855982567475962</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9884554472247444</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07145337271752084</v>
       </c>
       <c r="M13">
-        <v>65.93093013242071</v>
+        <v>5.732818520338924</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04994854489787315</v>
       </c>
       <c r="O13">
-        <v>2.868781190288274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.022746948658408</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2717610129881507</v>
+        <v>0.1284731827557124</v>
       </c>
       <c r="D14">
-        <v>0.3855714543402229</v>
+        <v>0.06858040546839561</v>
       </c>
       <c r="E14">
-        <v>1.437464879103018</v>
+        <v>0.04718979768797027</v>
       </c>
       <c r="F14">
-        <v>0.7758345494803365</v>
+        <v>1.260605217664789</v>
       </c>
       <c r="G14">
-        <v>0.9589200864701724</v>
+        <v>0.9806584594786756</v>
       </c>
       <c r="H14">
-        <v>0.3521840351136802</v>
+        <v>0.1630327927329205</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001415696585400639</v>
       </c>
       <c r="J14">
-        <v>2.980812180619438</v>
+        <v>0.6459468089202147</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9171230304693694</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06086172713523474</v>
       </c>
       <c r="M14">
-        <v>64.03760554207668</v>
+        <v>5.496752759546894</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03965972111951821</v>
       </c>
       <c r="O14">
-        <v>2.730521826503718</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.060960839863256</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2680660722756016</v>
+        <v>0.1244276625582756</v>
       </c>
       <c r="D15">
-        <v>0.3759251138153701</v>
+        <v>0.0664952703854027</v>
       </c>
       <c r="E15">
-        <v>1.404401923341211</v>
+        <v>0.04482696024151167</v>
       </c>
       <c r="F15">
-        <v>0.7439475203485628</v>
+        <v>1.231889962784734</v>
       </c>
       <c r="G15">
-        <v>0.9310991313135304</v>
+        <v>0.9567986643718598</v>
       </c>
       <c r="H15">
-        <v>0.3420164635661109</v>
+        <v>0.1756393471731883</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001519553242635752</v>
       </c>
       <c r="J15">
-        <v>2.914108873823977</v>
+        <v>0.6347697292331276</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8961704029795783</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05859498019016662</v>
       </c>
       <c r="M15">
-        <v>62.9174794971828</v>
+        <v>5.401798610306457</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03767054817077131</v>
       </c>
       <c r="O15">
-        <v>2.650103355070001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.070944733922076</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2475095608402711</v>
+        <v>0.1172930231936391</v>
       </c>
       <c r="D16">
-        <v>0.3273819987344666</v>
+        <v>0.0631704961171522</v>
       </c>
       <c r="E16">
-        <v>1.234664511280371</v>
+        <v>0.04348015239183489</v>
       </c>
       <c r="F16">
-        <v>0.5860353009686889</v>
+        <v>1.198065761176082</v>
       </c>
       <c r="G16">
-        <v>0.7888988135727573</v>
+        <v>0.9280642927488856</v>
       </c>
       <c r="H16">
-        <v>0.2910825052641997</v>
+        <v>0.1634661327653077</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001739559976534188</v>
       </c>
       <c r="J16">
-        <v>2.570157272267721</v>
+        <v>0.6251300659352097</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8714361504625998</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.05728325601656081</v>
       </c>
       <c r="M16">
-        <v>56.96927081181781</v>
+        <v>5.068254689896833</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03759879636616503</v>
       </c>
       <c r="O16">
-        <v>2.241173373244777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.067196688864001</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2353416232996324</v>
+        <v>0.1181494292478646</v>
       </c>
       <c r="D17">
-        <v>0.3020946944358371</v>
+        <v>0.06444947892956066</v>
       </c>
       <c r="E17">
-        <v>1.143726556506138</v>
+        <v>0.0473147431235752</v>
       </c>
       <c r="F17">
-        <v>0.5061863059674607</v>
+        <v>1.22411478434536</v>
       </c>
       <c r="G17">
-        <v>0.7135498266333968</v>
+        <v>0.9487864696479136</v>
       </c>
       <c r="H17">
-        <v>0.2649237736731607</v>
+        <v>0.1260534090286427</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001982004766563072</v>
       </c>
       <c r="J17">
-        <v>2.384772947042791</v>
+        <v>0.6385735403951855</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.889746771541077</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06115706939008092</v>
       </c>
       <c r="M17">
-        <v>53.6365515332476</v>
+        <v>4.937266776958893</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04234991616628214</v>
       </c>
       <c r="O17">
-        <v>2.026182028193318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.044343498015053</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2284734235136767</v>
+        <v>0.1270769783804298</v>
       </c>
       <c r="D18">
-        <v>0.2887734625443699</v>
+        <v>0.06988418128080554</v>
       </c>
       <c r="E18">
-        <v>1.095021446602601</v>
+        <v>0.05746859206500332</v>
       </c>
       <c r="F18">
-        <v>0.4650487010460154</v>
+        <v>1.308617654730114</v>
       </c>
       <c r="G18">
-        <v>0.6735752606607406</v>
+        <v>1.018054866400192</v>
       </c>
       <c r="H18">
-        <v>0.2513281265073743</v>
+        <v>0.07328602354252922</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001803858668528946</v>
       </c>
       <c r="J18">
-        <v>2.285141874491728</v>
+        <v>0.6751286051985659</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9508335424058316</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07334158091041587</v>
       </c>
       <c r="M18">
-        <v>51.8064422492277</v>
+        <v>4.968766207841213</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0550459600223796</v>
       </c>
       <c r="O18">
-        <v>1.912698909881158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.003846923243913</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.226168009471678</v>
+        <v>0.1405864326264918</v>
       </c>
       <c r="D19">
-        <v>0.2844436167142277</v>
+        <v>0.07877313009872466</v>
       </c>
       <c r="E19">
-        <v>1.07906235003054</v>
+        <v>0.07393920791228581</v>
       </c>
       <c r="F19">
-        <v>0.4518392808828722</v>
+        <v>1.431562096641642</v>
       </c>
       <c r="G19">
-        <v>0.6605471727618095</v>
+        <v>1.118533613045201</v>
       </c>
       <c r="H19">
-        <v>0.246944141871893</v>
+        <v>0.02774237315676231</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001821515807402641</v>
       </c>
       <c r="J19">
-        <v>2.25244210241263</v>
+        <v>0.7260416709969348</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.038693795418808</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09600474398801495</v>
       </c>
       <c r="M19">
-        <v>51.19964432709588</v>
+        <v>5.117946861255177</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07862498751963187</v>
       </c>
       <c r="O19">
-        <v>1.875809422847112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.9585059774286648</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2366228201566685</v>
+        <v>0.1699803738916472</v>
       </c>
       <c r="D20">
-        <v>0.3046523922758411</v>
+        <v>0.09675459090088623</v>
       </c>
       <c r="E20">
-        <v>1.153012342957325</v>
+        <v>0.1077084204849506</v>
       </c>
       <c r="F20">
-        <v>0.5141643465809622</v>
+        <v>1.669503252028335</v>
       </c>
       <c r="G20">
-        <v>0.7212045871081898</v>
+        <v>1.313974832532239</v>
       </c>
       <c r="H20">
-        <v>0.2675507603159843</v>
+        <v>0.0005659146704197759</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001612193717079435</v>
       </c>
       <c r="J20">
-        <v>2.40374033611505</v>
+        <v>0.8208334269211832</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.209582788909685</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1472713124110925</v>
       </c>
       <c r="M20">
-        <v>53.98181853537653</v>
+        <v>5.614598146382207</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1307402024074946</v>
       </c>
       <c r="O20">
-        <v>2.047960992840643</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.8934478445691028</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2735457702927988</v>
+        <v>0.1924888243974294</v>
       </c>
       <c r="D21">
-        <v>0.3903457054746156</v>
+        <v>0.1090096641111842</v>
       </c>
       <c r="E21">
-        <v>1.453753900950645</v>
+        <v>0.121758861854719</v>
       </c>
       <c r="F21">
-        <v>0.7916621185216641</v>
+        <v>1.813237151459603</v>
       </c>
       <c r="G21">
-        <v>0.9726321728524709</v>
+        <v>1.433364206881947</v>
       </c>
       <c r="H21">
-        <v>0.3572170156314911</v>
+        <v>1.65906091309509E-06</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002125287903724349</v>
       </c>
       <c r="J21">
-        <v>3.013640921990856</v>
+        <v>0.8715935256992395</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.313100672291867</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1662876621640663</v>
       </c>
       <c r="M21">
-        <v>64.58506109290209</v>
+        <v>6.342689363258614</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1477291637033815</v>
       </c>
       <c r="O21">
-        <v>2.770201833253367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.8690039034453463</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2998149290922356</v>
+        <v>0.2074897843806696</v>
       </c>
       <c r="D22">
-        <v>0.471185926514849</v>
+        <v>0.1161453053484678</v>
       </c>
       <c r="E22">
-        <v>1.722881623923485</v>
+        <v>0.129482247937208</v>
       </c>
       <c r="F22">
-        <v>1.062400025695275</v>
+        <v>1.902915613101683</v>
       </c>
       <c r="G22">
-        <v>1.198689068878309</v>
+        <v>1.508735252414709</v>
       </c>
       <c r="H22">
-        <v>0.4419778997984309</v>
+        <v>0.0002291734787300825</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002771408368757555</v>
       </c>
       <c r="J22">
-        <v>3.552999701837962</v>
+        <v>0.9035041086165165</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.378663330078851</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1765058024701958</v>
       </c>
       <c r="M22">
-        <v>73.23769604236634</v>
+        <v>6.812748861049499</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1557052915518966</v>
       </c>
       <c r="O22">
-        <v>3.428008410282985</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.8551945124984925</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2855177686683845</v>
+        <v>0.2008762469220642</v>
       </c>
       <c r="D23">
-        <v>0.4245128962669753</v>
+        <v>0.1121705774221056</v>
       </c>
       <c r="E23">
-        <v>1.568969440439361</v>
+        <v>0.1255101621086716</v>
       </c>
       <c r="F23">
-        <v>0.9056181534649355</v>
+        <v>1.859117348720559</v>
       </c>
       <c r="G23">
-        <v>1.069615215719111</v>
+        <v>1.472454705436803</v>
       </c>
       <c r="H23">
-        <v>0.3931925148042552</v>
+        <v>6.232354505186777E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002081739070650457</v>
       </c>
       <c r="J23">
-        <v>3.24522876351665</v>
+        <v>0.8884342024845466</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.347758236956821</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1714706408959614</v>
       </c>
       <c r="M23">
-        <v>68.37741784190285</v>
+        <v>6.568663667895862</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1510111246523209</v>
       </c>
       <c r="O23">
-        <v>3.051622050026793</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.8612272721942063</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2360432018227812</v>
+        <v>0.1735894132334295</v>
       </c>
       <c r="D24">
-        <v>0.3034923627668604</v>
+        <v>0.09745631416594591</v>
       </c>
       <c r="E24">
-        <v>1.148803378742173</v>
+        <v>0.1102742595053172</v>
       </c>
       <c r="F24">
-        <v>0.5105429507652062</v>
+        <v>1.689303655824631</v>
       </c>
       <c r="G24">
-        <v>0.7177336780892745</v>
+        <v>1.331163963633117</v>
       </c>
       <c r="H24">
-        <v>0.2663586983021986</v>
+        <v>0.0004103085910851512</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001120275458108111</v>
       </c>
       <c r="J24">
-        <v>2.395144076867609</v>
+        <v>0.8295255638862784</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.225551983077196</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1517611967625712</v>
       </c>
       <c r="M24">
-        <v>53.82546232121501</v>
+        <v>5.635193916192918</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1340884763138774</v>
       </c>
       <c r="O24">
-        <v>2.03808388359829</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.8879393410643814</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1876912339569543</v>
+        <v>0.1442031817914966</v>
       </c>
       <c r="D25">
-        <v>0.2211342612197882</v>
+        <v>0.08170623162062896</v>
       </c>
       <c r="E25">
-        <v>0.8371759479119447</v>
+        <v>0.09392222803840866</v>
       </c>
       <c r="F25">
-        <v>0.2712216743741109</v>
+        <v>1.511650271792604</v>
       </c>
       <c r="G25">
-        <v>0.4691303726825424</v>
+        <v>1.183966525743713</v>
       </c>
       <c r="H25">
-        <v>0.1859358182126556</v>
+        <v>0.002682664289098913</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002421837549551498</v>
       </c>
       <c r="J25">
-        <v>1.753279132218239</v>
+        <v>0.768819434301264</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.096834764878409</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1305511774309025</v>
       </c>
       <c r="M25">
-        <v>41.53291003599043</v>
+        <v>4.63183048131998</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1160903267943709</v>
       </c>
       <c r="O25">
-        <v>1.340744111401506</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9202275867124357</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1258099138669451</v>
+        <v>0.0662553726900228</v>
       </c>
       <c r="D2">
-        <v>0.06979437672019628</v>
+        <v>0.07757053472381159</v>
       </c>
       <c r="E2">
-        <v>0.08226725952017588</v>
+        <v>0.07659889996122615</v>
       </c>
       <c r="F2">
-        <v>1.394788505698685</v>
+        <v>1.209183159900363</v>
       </c>
       <c r="G2">
-        <v>1.088976316785335</v>
+        <v>0.8978407298660187</v>
       </c>
       <c r="H2">
-        <v>0.005741974727030641</v>
+        <v>0.004581403354233626</v>
       </c>
       <c r="I2">
-        <v>0.00435267730771427</v>
+        <v>0.002876249380189932</v>
       </c>
       <c r="J2">
-        <v>0.731063402871527</v>
+        <v>0.6571522119863431</v>
       </c>
       <c r="K2">
-        <v>1.014136267658088</v>
+        <v>0.8259066867853946</v>
       </c>
       <c r="L2">
-        <v>0.115904469816563</v>
+        <v>0.3553028248200008</v>
       </c>
       <c r="M2">
-        <v>3.91065166428092</v>
+        <v>0.2680066291718504</v>
       </c>
       <c r="N2">
-        <v>0.1019841063758591</v>
+        <v>0.09884185264459688</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3.652432227755071</v>
       </c>
       <c r="P2">
-        <v>0.9440098170524891</v>
+        <v>0.1286225170931061</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.9725865747082452</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1113256618952931</v>
+        <v>0.05900759514472753</v>
       </c>
       <c r="D3">
-        <v>0.06197964286771196</v>
+        <v>0.06884688798222527</v>
       </c>
       <c r="E3">
-        <v>0.07415170151961448</v>
+        <v>0.06945941382622323</v>
       </c>
       <c r="F3">
-        <v>1.311769037057275</v>
+        <v>1.146621758123956</v>
       </c>
       <c r="G3">
-        <v>1.020814758199521</v>
+        <v>0.8522591871538054</v>
       </c>
       <c r="H3">
-        <v>0.008636494205926271</v>
+        <v>0.006880833734980274</v>
       </c>
       <c r="I3">
-        <v>0.007032149453697123</v>
+        <v>0.004644110912077615</v>
       </c>
       <c r="J3">
-        <v>0.7037464412309618</v>
+        <v>0.6339504457382219</v>
       </c>
       <c r="K3">
-        <v>0.953366147821761</v>
+        <v>0.7848579316864388</v>
       </c>
       <c r="L3">
-        <v>0.1053470961071241</v>
+        <v>0.3480710367685234</v>
       </c>
       <c r="M3">
-        <v>3.412596004149918</v>
+        <v>0.2456273761096455</v>
       </c>
       <c r="N3">
-        <v>0.09308938983421911</v>
+        <v>0.0907025127784884</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>3.194431235503828</v>
       </c>
       <c r="P3">
-        <v>0.9633108129171077</v>
+        <v>0.1174745812358182</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.979882318814802</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1023160199897859</v>
+        <v>0.05446885810913216</v>
       </c>
       <c r="D4">
-        <v>0.0572001117806451</v>
+        <v>0.06351726067003227</v>
       </c>
       <c r="E4">
-        <v>0.0691525756972986</v>
+        <v>0.06505030954105706</v>
       </c>
       <c r="F4">
-        <v>1.261488561899014</v>
+        <v>1.108595386368251</v>
       </c>
       <c r="G4">
-        <v>0.97959630508673</v>
+        <v>0.8248147433133823</v>
       </c>
       <c r="H4">
-        <v>0.01078275876309206</v>
+        <v>0.008587357480036473</v>
       </c>
       <c r="I4">
-        <v>0.009132516388372647</v>
+        <v>0.006069422039584715</v>
       </c>
       <c r="J4">
-        <v>0.6873751286288012</v>
+        <v>0.6197185993519128</v>
       </c>
       <c r="K4">
-        <v>0.9163201913153358</v>
+        <v>0.7596529544297539</v>
       </c>
       <c r="L4">
-        <v>0.098812405513236</v>
+        <v>0.343293140495831</v>
       </c>
       <c r="M4">
-        <v>3.106364359200143</v>
+        <v>0.2327597300298727</v>
       </c>
       <c r="N4">
-        <v>0.0876742464408693</v>
+        <v>0.08563616391236906</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.912190980250358</v>
       </c>
       <c r="P4">
-        <v>0.9759327419072648</v>
+        <v>0.1107128095697973</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.9852482252273305</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09827490788416071</v>
+        <v>0.05236150635602854</v>
       </c>
       <c r="D5">
-        <v>0.05529654513578208</v>
+        <v>0.06139210095792436</v>
       </c>
       <c r="E5">
-        <v>0.06707341318862703</v>
+        <v>0.06321266111048018</v>
       </c>
       <c r="F5">
-        <v>1.240115295721594</v>
+        <v>1.092261320085747</v>
       </c>
       <c r="G5">
-        <v>0.9619338036095968</v>
+        <v>0.8128845869993597</v>
       </c>
       <c r="H5">
-        <v>0.01175432485338809</v>
+        <v>0.009360378209409354</v>
       </c>
       <c r="I5">
-        <v>0.0101864475920741</v>
+        <v>0.006829784207359246</v>
       </c>
       <c r="J5">
-        <v>0.6802893120600828</v>
+        <v>0.6134569496105797</v>
       </c>
       <c r="K5">
-        <v>0.900250786617363</v>
+        <v>0.7484943714127752</v>
       </c>
       <c r="L5">
-        <v>0.09603236120321768</v>
+        <v>0.3408787257525461</v>
       </c>
       <c r="M5">
-        <v>2.979794079003852</v>
+        <v>0.2274515923441633</v>
       </c>
       <c r="N5">
-        <v>0.08558179262942645</v>
+        <v>0.08346466695803301</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.795372854430553</v>
       </c>
       <c r="P5">
-        <v>0.9815151382083727</v>
+        <v>0.1080890585982957</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.9879593781037457</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09718811416188089</v>
+        <v>0.0517251127536511</v>
       </c>
       <c r="D6">
-        <v>0.05502972759807534</v>
+        <v>0.0610892275000694</v>
       </c>
       <c r="E6">
-        <v>0.06668245686060814</v>
+        <v>0.06286554908252384</v>
       </c>
       <c r="F6">
-        <v>1.235299755080447</v>
+        <v>1.08842290379372</v>
       </c>
       <c r="G6">
-        <v>0.9577739351639707</v>
+        <v>0.8098465877493339</v>
       </c>
       <c r="H6">
-        <v>0.0119308610201327</v>
+        <v>0.009500916902625833</v>
       </c>
       <c r="I6">
-        <v>0.01048340629281608</v>
+        <v>0.007088959999519417</v>
       </c>
       <c r="J6">
-        <v>0.6784962046499743</v>
+        <v>0.6118510014338341</v>
       </c>
       <c r="K6">
-        <v>0.8963249166572211</v>
+        <v>0.7455628579379052</v>
       </c>
       <c r="L6">
-        <v>0.09544420484471061</v>
+        <v>0.3400066926121781</v>
       </c>
       <c r="M6">
-        <v>2.95675195196344</v>
+        <v>0.2262395127248737</v>
       </c>
       <c r="N6">
-        <v>0.08536243210063788</v>
+        <v>0.08299434488126778</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.774084832374484</v>
       </c>
       <c r="P6">
-        <v>0.9827625601103165</v>
+        <v>0.1077922026572082</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.9888014427501872</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1011254782122535</v>
+        <v>0.05381530113172772</v>
       </c>
       <c r="D7">
-        <v>0.05730856563315001</v>
+        <v>0.0638058893217277</v>
       </c>
       <c r="E7">
-        <v>0.06900026507116408</v>
+        <v>0.064955919428904</v>
       </c>
       <c r="F7">
-        <v>1.257710813274485</v>
+        <v>1.103516082191703</v>
       </c>
       <c r="G7">
-        <v>0.9759781880109557</v>
+        <v>0.8254407470380727</v>
       </c>
       <c r="H7">
-        <v>0.01082090316378308</v>
+        <v>0.008626960287874463</v>
       </c>
       <c r="I7">
-        <v>0.009442404229510259</v>
+        <v>0.006417151207524618</v>
       </c>
       <c r="J7">
-        <v>0.6855792055501411</v>
+        <v>0.611380477763845</v>
       </c>
       <c r="K7">
-        <v>0.9126534250933176</v>
+        <v>0.7553269493617449</v>
       </c>
       <c r="L7">
-        <v>0.0984309377166781</v>
+        <v>0.3414861651276695</v>
       </c>
       <c r="M7">
-        <v>3.099127364710796</v>
+        <v>0.2313267414368489</v>
       </c>
       <c r="N7">
-        <v>0.08799482556697313</v>
+        <v>0.08527519727046595</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.902347033661073</v>
       </c>
       <c r="P7">
-        <v>0.9768678118080985</v>
+        <v>0.1110324157808193</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.986976206121895</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1193170201287472</v>
+        <v>0.06325583717001138</v>
       </c>
       <c r="D8">
-        <v>0.06727416428186217</v>
+        <v>0.07534804507987047</v>
       </c>
       <c r="E8">
-        <v>0.07930601522482661</v>
+        <v>0.07413931414577846</v>
       </c>
       <c r="F8">
-        <v>1.361375351186197</v>
+        <v>1.177579121091426</v>
       </c>
       <c r="G8">
-        <v>1.060841610181456</v>
+        <v>0.8905370159447159</v>
       </c>
       <c r="H8">
-        <v>0.006686447400362394</v>
+        <v>0.005353892945007654</v>
       </c>
       <c r="I8">
-        <v>0.005523968415651836</v>
+        <v>0.003822272320087805</v>
       </c>
       <c r="J8">
-        <v>0.7193036342414274</v>
+        <v>0.6250581376414885</v>
       </c>
       <c r="K8">
-        <v>0.9885340785913002</v>
+        <v>0.8037928074479836</v>
       </c>
       <c r="L8">
-        <v>0.1118155614432652</v>
+        <v>0.3496628950383496</v>
       </c>
       <c r="M8">
-        <v>3.731578554287864</v>
+        <v>0.2573449605720626</v>
       </c>
       <c r="N8">
-        <v>0.09937219202137726</v>
+        <v>0.09554175021384737</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>3.477337736058928</v>
       </c>
       <c r="P8">
-        <v>0.951708930995423</v>
+        <v>0.1251932576591628</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.978645192639469</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1561985583358165</v>
+        <v>0.08196768865552428</v>
       </c>
       <c r="D9">
-        <v>0.08675357422607988</v>
+        <v>0.09731399509598759</v>
       </c>
       <c r="E9">
-        <v>0.09965204417774842</v>
+        <v>0.09201741816988829</v>
       </c>
       <c r="F9">
-        <v>1.577164230661978</v>
+        <v>1.338304486926774</v>
       </c>
       <c r="G9">
-        <v>1.239069607682325</v>
+        <v>1.014793930919822</v>
       </c>
       <c r="H9">
-        <v>0.001665216170585682</v>
+        <v>0.001356287862787298</v>
       </c>
       <c r="I9">
-        <v>0.001256124051509211</v>
+        <v>0.001070098531163133</v>
       </c>
       <c r="J9">
-        <v>0.791991838040218</v>
+        <v>0.6787881814704946</v>
       </c>
       <c r="K9">
-        <v>1.146099186641635</v>
+        <v>0.9087822109254375</v>
       </c>
       <c r="L9">
-        <v>0.1383259724678609</v>
+        <v>0.3670480067841453</v>
       </c>
       <c r="M9">
-        <v>4.979765049437731</v>
+        <v>0.3187685796064486</v>
       </c>
       <c r="N9">
-        <v>0.1214826152050179</v>
+        <v>0.1158229157181694</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>4.618178108679047</v>
       </c>
       <c r="P9">
-        <v>0.9071320430240633</v>
+        <v>0.1530834439806341</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.9652946100716377</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1799070475110796</v>
+        <v>0.09476782907224646</v>
       </c>
       <c r="D10">
-        <v>0.09983462588198933</v>
+        <v>0.1131892724410761</v>
       </c>
       <c r="E10">
-        <v>0.1112953389032221</v>
+        <v>0.1022758665231862</v>
       </c>
       <c r="F10">
-        <v>1.718878709130422</v>
+        <v>1.431247946395416</v>
       </c>
       <c r="G10">
-        <v>1.356469701377875</v>
+        <v>1.117848224126149</v>
       </c>
       <c r="H10">
-        <v>0.0003766035340087015</v>
+        <v>0.00036149651136963</v>
       </c>
       <c r="I10">
-        <v>0.0009295680890746283</v>
+        <v>0.001163766543379907</v>
       </c>
       <c r="J10">
-        <v>0.8390295775413392</v>
+        <v>0.6740126049834174</v>
       </c>
       <c r="K10">
-        <v>1.247966356106105</v>
+        <v>0.9671462186145874</v>
       </c>
       <c r="L10">
-        <v>0.1522114448198479</v>
+        <v>0.3713341891323694</v>
       </c>
       <c r="M10">
-        <v>5.866675485146345</v>
+        <v>0.3608923830691992</v>
       </c>
       <c r="N10">
-        <v>0.1328810520282317</v>
+        <v>0.1256642586782704</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>5.407671678617362</v>
       </c>
       <c r="P10">
-        <v>0.8843775597662997</v>
+        <v>0.1678324283728116</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.9714684599521206</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1685240008486915</v>
+        <v>0.0907710157064372</v>
       </c>
       <c r="D11">
-        <v>0.09358466047235936</v>
+        <v>0.1085077511803547</v>
       </c>
       <c r="E11">
-        <v>0.09018611279469368</v>
+        <v>0.08281558812135259</v>
       </c>
       <c r="F11">
-        <v>1.607923561381767</v>
+        <v>1.31437125011135</v>
       </c>
       <c r="G11">
-        <v>1.265213310428237</v>
+        <v>1.086696215330321</v>
       </c>
       <c r="H11">
-        <v>0.01889296418008612</v>
+        <v>0.01890516735198489</v>
       </c>
       <c r="I11">
-        <v>0.001600294004955316</v>
+        <v>0.001941585170174065</v>
       </c>
       <c r="J11">
-        <v>0.7885798652086748</v>
+        <v>0.5617676262411635</v>
       </c>
       <c r="K11">
-        <v>1.166366225752029</v>
+        <v>0.8864914921456517</v>
       </c>
       <c r="L11">
-        <v>0.1170384205123369</v>
+        <v>0.3351777403517673</v>
       </c>
       <c r="M11">
-        <v>6.015876163395944</v>
+        <v>0.3379296233937339</v>
       </c>
       <c r="N11">
-        <v>0.09685011366850205</v>
+        <v>0.09547969586746063</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>5.516484114266746</v>
       </c>
       <c r="P11">
-        <v>0.9269194642503464</v>
+        <v>0.124971822145767</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>1.043366638324144</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1562192200916996</v>
+        <v>0.0855312125322385</v>
       </c>
       <c r="D12">
-        <v>0.08553380538521793</v>
+        <v>0.1003977044100779</v>
       </c>
       <c r="E12">
-        <v>0.07273613217588348</v>
+        <v>0.06672374249535906</v>
       </c>
       <c r="F12">
-        <v>1.491804953088746</v>
+        <v>1.209903846463263</v>
       </c>
       <c r="G12">
-        <v>1.170409548112161</v>
+        <v>1.028874190479783</v>
       </c>
       <c r="H12">
-        <v>0.05760693921081383</v>
+        <v>0.05762364371304329</v>
       </c>
       <c r="I12">
-        <v>0.00161162069548304</v>
+        <v>0.001949262449596922</v>
       </c>
       <c r="J12">
-        <v>0.7393554075626412</v>
+        <v>0.4982184289566334</v>
       </c>
       <c r="K12">
-        <v>1.083063133029611</v>
+        <v>0.8170311529493333</v>
       </c>
       <c r="L12">
-        <v>0.09149664038509542</v>
+        <v>0.3082437332635521</v>
       </c>
       <c r="M12">
-        <v>5.959356623262636</v>
+        <v>0.3132329800888414</v>
       </c>
       <c r="N12">
-        <v>0.07023035028572622</v>
+        <v>0.0748444659801244</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>5.458409838277021</v>
       </c>
       <c r="P12">
-        <v>0.9723243494851346</v>
+        <v>0.09219896349438272</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>1.104324673320662</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1407854886723925</v>
+        <v>0.07759980305717562</v>
       </c>
       <c r="D13">
-        <v>0.07590282745129429</v>
+        <v>0.08912652524193732</v>
       </c>
       <c r="E13">
-        <v>0.05699637342574349</v>
+        <v>0.05219059075803578</v>
       </c>
       <c r="F13">
-        <v>1.359824904234941</v>
+        <v>1.107117222512073</v>
       </c>
       <c r="G13">
-        <v>1.062250512782086</v>
+        <v>0.9345419647185196</v>
       </c>
       <c r="H13">
-        <v>0.1135017841304489</v>
+        <v>0.1134965608619325</v>
       </c>
       <c r="I13">
-        <v>0.001455379271723345</v>
+        <v>0.001790916162722311</v>
       </c>
       <c r="J13">
-        <v>0.6855982567475962</v>
+        <v>0.4709713493475221</v>
       </c>
       <c r="K13">
-        <v>0.9884554472247444</v>
+        <v>0.7496320165835471</v>
       </c>
       <c r="L13">
-        <v>0.07145337271752084</v>
+        <v>0.2852477772412172</v>
       </c>
       <c r="M13">
-        <v>5.732818520338924</v>
+        <v>0.285314429219909</v>
       </c>
       <c r="N13">
-        <v>0.04994854489787315</v>
+        <v>0.05986360762193854</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>5.268886724105414</v>
       </c>
       <c r="P13">
-        <v>1.022746948658408</v>
+        <v>0.06608898758518933</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>1.15664447123541</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1284731827557124</v>
+        <v>0.07082377274111451</v>
       </c>
       <c r="D14">
-        <v>0.06858040546839561</v>
+        <v>0.08006600325660429</v>
       </c>
       <c r="E14">
-        <v>0.04718979768797027</v>
+        <v>0.0431928118543734</v>
       </c>
       <c r="F14">
-        <v>1.260605217664789</v>
+        <v>1.035116063066354</v>
       </c>
       <c r="G14">
-        <v>0.9806584594786756</v>
+        <v>0.8539702369505022</v>
       </c>
       <c r="H14">
-        <v>0.1630327927329205</v>
+        <v>0.162985004565158</v>
       </c>
       <c r="I14">
-        <v>0.001415696585400639</v>
+        <v>0.001741481821181168</v>
       </c>
       <c r="J14">
-        <v>0.6459468089202147</v>
+        <v>0.4651017257773304</v>
       </c>
       <c r="K14">
-        <v>0.9171230304693694</v>
+        <v>0.7025779501527509</v>
       </c>
       <c r="L14">
-        <v>0.06086172713523474</v>
+        <v>0.2703943759428142</v>
       </c>
       <c r="M14">
-        <v>5.496752759546894</v>
+        <v>0.2642633118376239</v>
       </c>
       <c r="N14">
-        <v>0.03965972111951821</v>
+        <v>0.0527411595746301</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>5.075230476964975</v>
       </c>
       <c r="P14">
-        <v>1.060960839863256</v>
+        <v>0.05197218513216484</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>1.189413160718843</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1244276625582756</v>
+        <v>0.06841768741242049</v>
       </c>
       <c r="D15">
-        <v>0.0664952703854027</v>
+        <v>0.07730749837023865</v>
       </c>
       <c r="E15">
-        <v>0.04482696024151167</v>
+        <v>0.04103580890077296</v>
       </c>
       <c r="F15">
-        <v>1.231889962784734</v>
+        <v>1.016187760602378</v>
       </c>
       <c r="G15">
-        <v>0.9567986643718598</v>
+        <v>0.8271621046181394</v>
       </c>
       <c r="H15">
-        <v>0.1756393471731883</v>
+        <v>0.1755671541966422</v>
       </c>
       <c r="I15">
-        <v>0.001519553242635752</v>
+        <v>0.001851947478293425</v>
       </c>
       <c r="J15">
-        <v>0.6347697292331276</v>
+        <v>0.4688475547241353</v>
       </c>
       <c r="K15">
-        <v>0.8961704029795783</v>
+        <v>0.6900716969970517</v>
       </c>
       <c r="L15">
-        <v>0.05859498019016662</v>
+        <v>0.2669398259343794</v>
       </c>
       <c r="M15">
-        <v>5.401798610306457</v>
+        <v>0.2580199620160784</v>
       </c>
       <c r="N15">
-        <v>0.03767054817077131</v>
+        <v>0.05135393612813921</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>4.997956439265408</v>
       </c>
       <c r="P15">
-        <v>1.070944733922076</v>
+        <v>0.04910823572134859</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>1.19525959776513</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1172930231936391</v>
+        <v>0.06322672767468163</v>
       </c>
       <c r="D16">
-        <v>0.0631704961171522</v>
+        <v>0.07180558915447222</v>
       </c>
       <c r="E16">
-        <v>0.04348015239183489</v>
+        <v>0.03978888036567696</v>
       </c>
       <c r="F16">
-        <v>1.198065761176082</v>
+        <v>1.00913099037929</v>
       </c>
       <c r="G16">
-        <v>0.9280642927488856</v>
+        <v>0.7724412569301222</v>
       </c>
       <c r="H16">
-        <v>0.1634661327653077</v>
+        <v>0.1632475570399947</v>
       </c>
       <c r="I16">
-        <v>0.001739559976534188</v>
+        <v>0.0019517554022217</v>
       </c>
       <c r="J16">
-        <v>0.6251300659352097</v>
+        <v>0.5173175548134736</v>
       </c>
       <c r="K16">
-        <v>0.8714361504625998</v>
+        <v>0.6864323257926159</v>
       </c>
       <c r="L16">
-        <v>0.05728325601656081</v>
+        <v>0.2709040309348794</v>
       </c>
       <c r="M16">
-        <v>5.068254689896833</v>
+        <v>0.2498348877742771</v>
       </c>
       <c r="N16">
-        <v>0.03759879636616503</v>
+        <v>0.05047407030847584</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>4.726696621420331</v>
       </c>
       <c r="P16">
-        <v>1.067196688864001</v>
+        <v>0.04923838149163018</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>1.167599258620783</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1181494292478646</v>
+        <v>0.06286419071552984</v>
       </c>
       <c r="D17">
-        <v>0.06444947892956066</v>
+        <v>0.07249226134832298</v>
       </c>
       <c r="E17">
-        <v>0.0473147431235752</v>
+        <v>0.04327035579063754</v>
       </c>
       <c r="F17">
-        <v>1.22411478434536</v>
+        <v>1.039981894884335</v>
       </c>
       <c r="G17">
-        <v>0.9487864696479136</v>
+        <v>0.7767644613221165</v>
       </c>
       <c r="H17">
-        <v>0.1260534090286427</v>
+        <v>0.1257400118147558</v>
       </c>
       <c r="I17">
-        <v>0.001982004766563072</v>
+        <v>0.002101124132684262</v>
       </c>
       <c r="J17">
-        <v>0.6385735403951855</v>
+        <v>0.5532412798558397</v>
       </c>
       <c r="K17">
-        <v>0.889746771541077</v>
+        <v>0.7072405584819919</v>
       </c>
       <c r="L17">
-        <v>0.06115706939008092</v>
+        <v>0.2817009249126627</v>
       </c>
       <c r="M17">
-        <v>4.937266776958893</v>
+        <v>0.2539207339785747</v>
       </c>
       <c r="N17">
-        <v>0.04234991616628214</v>
+        <v>0.05297075886894653</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>4.616259873980653</v>
       </c>
       <c r="P17">
-        <v>1.044343498015053</v>
+        <v>0.05608221618231113</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>1.132103515305133</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1270769783804298</v>
+        <v>0.0669940618960112</v>
       </c>
       <c r="D18">
-        <v>0.06988418128080554</v>
+        <v>0.07824333442159315</v>
       </c>
       <c r="E18">
-        <v>0.05746859206500332</v>
+        <v>0.05253799457621788</v>
       </c>
       <c r="F18">
-        <v>1.308617654730114</v>
+        <v>1.113929668301864</v>
       </c>
       <c r="G18">
-        <v>1.018054866400192</v>
+        <v>0.8269410535938277</v>
       </c>
       <c r="H18">
-        <v>0.07328602354252922</v>
+        <v>0.07295843253818646</v>
       </c>
       <c r="I18">
-        <v>0.001803858668528946</v>
+        <v>0.001855670439191215</v>
       </c>
       <c r="J18">
-        <v>0.6751286051985659</v>
+        <v>0.5938563199218407</v>
       </c>
       <c r="K18">
-        <v>0.9508335424058316</v>
+        <v>0.7569056945520316</v>
       </c>
       <c r="L18">
-        <v>0.07334158091041587</v>
+        <v>0.3018102466141173</v>
       </c>
       <c r="M18">
-        <v>4.968766207841213</v>
+        <v>0.2707841471417112</v>
       </c>
       <c r="N18">
-        <v>0.0550459600223796</v>
+        <v>0.06192772150975046</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>4.642209844695969</v>
       </c>
       <c r="P18">
-        <v>1.003846923243913</v>
+        <v>0.07289542364313562</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>1.083981899782188</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1405864326264918</v>
+        <v>0.07347759930995323</v>
       </c>
       <c r="D19">
-        <v>0.07877313009872466</v>
+        <v>0.08805300042853759</v>
       </c>
       <c r="E19">
-        <v>0.07393920791228581</v>
+        <v>0.06768735056261477</v>
       </c>
       <c r="F19">
-        <v>1.431562096641642</v>
+        <v>1.21611997096187</v>
       </c>
       <c r="G19">
-        <v>1.118533613045201</v>
+        <v>0.9047647873595821</v>
       </c>
       <c r="H19">
-        <v>0.02774237315676231</v>
+        <v>0.02747843852745291</v>
       </c>
       <c r="I19">
-        <v>0.001821515807402641</v>
+        <v>0.001951236498412889</v>
       </c>
       <c r="J19">
-        <v>0.7260416709969348</v>
+        <v>0.6381362720854895</v>
       </c>
       <c r="K19">
-        <v>1.038693795418808</v>
+        <v>0.8241772455890768</v>
       </c>
       <c r="L19">
-        <v>0.09600474398801495</v>
+        <v>0.3272245535385281</v>
       </c>
       <c r="M19">
-        <v>5.117946861255177</v>
+        <v>0.2958769792754197</v>
       </c>
       <c r="N19">
-        <v>0.07862498751963187</v>
+        <v>0.07990111650824261</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>4.768886803251462</v>
       </c>
       <c r="P19">
-        <v>0.9585059774286648</v>
+        <v>0.1023226897968144</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>1.034064836301539</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1699803738916472</v>
+        <v>0.08848501623830174</v>
       </c>
       <c r="D20">
-        <v>0.09675459090088623</v>
+        <v>0.1086974982512032</v>
       </c>
       <c r="E20">
-        <v>0.1077084204849506</v>
+        <v>0.09894130638033971</v>
       </c>
       <c r="F20">
-        <v>1.669503252028335</v>
+        <v>1.402779381258441</v>
       </c>
       <c r="G20">
-        <v>1.313974832532239</v>
+        <v>1.067146658220679</v>
       </c>
       <c r="H20">
-        <v>0.0005659146704197759</v>
+        <v>0.0004992128451313249</v>
       </c>
       <c r="I20">
-        <v>0.001612193717079435</v>
+        <v>0.001945618066109489</v>
       </c>
       <c r="J20">
-        <v>0.8208334269211832</v>
+        <v>0.6934459259604751</v>
       </c>
       <c r="K20">
-        <v>1.209582788909685</v>
+        <v>0.946688776641075</v>
       </c>
       <c r="L20">
-        <v>0.1472713124110925</v>
+        <v>0.3683983534046931</v>
       </c>
       <c r="M20">
-        <v>5.614598146382207</v>
+        <v>0.3475965103624077</v>
       </c>
       <c r="N20">
-        <v>0.1307402024074946</v>
+        <v>0.1221161997967499</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>5.194814585394624</v>
       </c>
       <c r="P20">
-        <v>0.8934478445691028</v>
+        <v>0.1649505422801454</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.9708565457062264</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1924888243974294</v>
+        <v>0.1034843447324576</v>
       </c>
       <c r="D21">
-        <v>0.1090096641111842</v>
+        <v>0.1270768620230598</v>
       </c>
       <c r="E21">
-        <v>0.121758861854719</v>
+        <v>0.1124482982136179</v>
       </c>
       <c r="F21">
-        <v>1.813237151459603</v>
+        <v>1.468849348688138</v>
       </c>
       <c r="G21">
-        <v>1.433364206881947</v>
+        <v>1.244776499754352</v>
       </c>
       <c r="H21">
-        <v>1.65906091309509E-06</v>
+        <v>2.753550085721201E-07</v>
       </c>
       <c r="I21">
-        <v>0.002125287903724349</v>
+        <v>0.002462548694945887</v>
       </c>
       <c r="J21">
-        <v>0.8715935256992395</v>
+        <v>0.5871041003175748</v>
       </c>
       <c r="K21">
-        <v>1.313100672291867</v>
+        <v>0.9872222903172343</v>
       </c>
       <c r="L21">
-        <v>0.1662876621640663</v>
+        <v>0.3700046590091759</v>
       </c>
       <c r="M21">
-        <v>6.342689363258614</v>
+        <v>0.3792727424399658</v>
       </c>
       <c r="N21">
-        <v>0.1477291637033815</v>
+        <v>0.1360513512587573</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>5.777733753110624</v>
       </c>
       <c r="P21">
-        <v>0.8690039034453463</v>
+        <v>0.1856348925423958</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.9829030072937286</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2074897843806696</v>
+        <v>0.1140648085889069</v>
       </c>
       <c r="D22">
-        <v>0.1161453053484678</v>
+        <v>0.138574827676365</v>
       </c>
       <c r="E22">
-        <v>0.129482247937208</v>
+        <v>0.1200097097146617</v>
       </c>
       <c r="F22">
-        <v>1.902915613101683</v>
+        <v>1.505336895148048</v>
       </c>
       <c r="G22">
-        <v>1.508735252414709</v>
+        <v>1.369625791400154</v>
       </c>
       <c r="H22">
-        <v>0.0002291734787300825</v>
+        <v>0.0001236632444139296</v>
       </c>
       <c r="I22">
-        <v>0.002771408368757555</v>
+        <v>0.002828449344491446</v>
       </c>
       <c r="J22">
-        <v>0.9035041086165165</v>
+        <v>0.5170603995596252</v>
       </c>
       <c r="K22">
-        <v>1.378663330078851</v>
+        <v>1.010052415209614</v>
       </c>
       <c r="L22">
-        <v>0.1765058024701958</v>
+        <v>0.3696436276567496</v>
       </c>
       <c r="M22">
-        <v>6.812748861049499</v>
+        <v>0.3991196768871319</v>
       </c>
       <c r="N22">
-        <v>0.1557052915518966</v>
+        <v>0.1432043807655958</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>6.146992768677137</v>
       </c>
       <c r="P22">
-        <v>0.8551945124984925</v>
+        <v>0.1954891269717365</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.9952521455879406</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2008762469220642</v>
+        <v>0.1088940066815809</v>
       </c>
       <c r="D23">
-        <v>0.1121705774221056</v>
+        <v>0.1317191554407344</v>
       </c>
       <c r="E23">
-        <v>0.1255101621086716</v>
+        <v>0.1159776843337887</v>
       </c>
       <c r="F23">
-        <v>1.859117348720559</v>
+        <v>1.494045712258782</v>
       </c>
       <c r="G23">
-        <v>1.472454705436803</v>
+        <v>1.295142372194022</v>
       </c>
       <c r="H23">
-        <v>6.232354505186777E-05</v>
+        <v>2.622206128588545E-05</v>
       </c>
       <c r="I23">
-        <v>0.002081739070650457</v>
+        <v>0.00224895863176755</v>
       </c>
       <c r="J23">
-        <v>0.8884342024845466</v>
+        <v>0.5691091864563163</v>
       </c>
       <c r="K23">
-        <v>1.347758236956821</v>
+        <v>1.004438544708577</v>
       </c>
       <c r="L23">
-        <v>0.1714706408959614</v>
+        <v>0.3721354600671134</v>
       </c>
       <c r="M23">
-        <v>6.568663667895862</v>
+        <v>0.3911296030109028</v>
       </c>
       <c r="N23">
-        <v>0.1510111246523209</v>
+        <v>0.1398251482770974</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>5.965025595960412</v>
       </c>
       <c r="P23">
-        <v>0.8612272721942063</v>
+        <v>0.1898047009098676</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.9846568909361224</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1735894132334295</v>
+        <v>0.09055568183407559</v>
       </c>
       <c r="D24">
-        <v>0.09745631416594591</v>
+        <v>0.1094649292393086</v>
       </c>
       <c r="E24">
-        <v>0.1102742595053172</v>
+        <v>0.1013240457898199</v>
       </c>
       <c r="F24">
-        <v>1.689303655824631</v>
+        <v>1.419742912891252</v>
       </c>
       <c r="G24">
-        <v>1.331163963633117</v>
+        <v>1.080500931243307</v>
       </c>
       <c r="H24">
-        <v>0.0004103085910851512</v>
+        <v>0.0003484756274376721</v>
       </c>
       <c r="I24">
-        <v>0.001120275458108111</v>
+        <v>0.00135744062394938</v>
       </c>
       <c r="J24">
-        <v>0.8295255638862784</v>
+        <v>0.7018184098317874</v>
       </c>
       <c r="K24">
-        <v>1.225551983077196</v>
+        <v>0.9595311779456068</v>
       </c>
       <c r="L24">
-        <v>0.1517611967625712</v>
+        <v>0.3732941143505641</v>
       </c>
       <c r="M24">
-        <v>5.635193916192918</v>
+        <v>0.3523400043508502</v>
       </c>
       <c r="N24">
-        <v>0.1340884763138774</v>
+        <v>0.1259384575303386</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>5.213013788712033</v>
       </c>
       <c r="P24">
-        <v>0.8879393410643814</v>
+        <v>0.1689380500867728</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.9639151213004595</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1442031817914966</v>
+        <v>0.0753668873535176</v>
       </c>
       <c r="D25">
-        <v>0.08170623162062896</v>
+        <v>0.09132720243757575</v>
       </c>
       <c r="E25">
-        <v>0.09392222803840866</v>
+        <v>0.0869234258422118</v>
       </c>
       <c r="F25">
-        <v>1.511650271792604</v>
+        <v>1.291349914457925</v>
       </c>
       <c r="G25">
-        <v>1.183966525743713</v>
+        <v>0.9699347239599092</v>
       </c>
       <c r="H25">
-        <v>0.002682664289098913</v>
+        <v>0.002162237286613022</v>
       </c>
       <c r="I25">
-        <v>0.002421837549551498</v>
+        <v>0.00201416790922071</v>
       </c>
       <c r="J25">
-        <v>0.768819434301264</v>
+        <v>0.6709219099755614</v>
       </c>
       <c r="K25">
-        <v>1.096834764878409</v>
+        <v>0.8767993168088353</v>
       </c>
       <c r="L25">
-        <v>0.1305511774309025</v>
+        <v>0.3612771414405671</v>
       </c>
       <c r="M25">
-        <v>4.63183048131998</v>
+        <v>0.3000631065861015</v>
       </c>
       <c r="N25">
-        <v>0.1160903267943709</v>
+        <v>0.1098975868811323</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>4.305311862644203</v>
       </c>
       <c r="P25">
-        <v>0.9202275867124357</v>
+        <v>0.1461867015547824</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9692209670511502</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
